--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail14 Features.xlsx
@@ -6395,7 +6395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6406,29 +6406,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6449,115 +6447,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6574,72 +6562,66 @@
         <v>1.685977142373493e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3852274363647435</v>
+        <v>7.75895738666618e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9209690391769829</v>
+        <v>2.825365749990455e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.75895738666618e-07</v>
+        <v>0.03544598892620855</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.825365749990455e-06</v>
+        <v>0.2504488724827924</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03544598892620855</v>
+        <v>0.06382383549766789</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2504488724827924</v>
+        <v>1.925048768065292</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06382383549766789</v>
+        <v>2.720250493936851</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.936119532667999</v>
+        <v>4.973031030195147</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.720250493936851</v>
+        <v>6.969668218645267e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.973031030195147</v>
+        <v>2400322113.564179</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.969668218645267e-17</v>
+        <v>5.025789794409928e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2400322113.564179</v>
+        <v>401.5606578097072</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.025789794409928e-08</v>
+        <v>0.0001069528867130765</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>401.5606578097072</v>
+        <v>9.027524764189074</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001069528867130765</v>
+        <v>1.11952177716327</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.027524764189074</v>
+        <v>0.008716254206368571</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.11952177716327</v>
+        <v>3.608508142365869</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008716254206368571</v>
+        <v>0.9589980346417407</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.608508142365869</v>
+        <v>1.233263870241569</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9589980346417407</v>
+        <v>64</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.233263870241569</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.230666833448579</v>
       </c>
     </row>
@@ -6654,72 +6636,66 @@
         <v>1.602687066740191e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1711772862889595</v>
+        <v>5.515750195733613e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.547985852616772</v>
+        <v>2.829412619669425e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.515750195733613e-07</v>
+        <v>0.01479540906003295</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.829412619669425e-06</v>
+        <v>0.1938499906262579</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01479540906003295</v>
+        <v>0.03770698616925867</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1938499906262579</v>
+        <v>1.926035024923098</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03770698616925867</v>
+        <v>2.18210525898465</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.937752962794317</v>
+        <v>5.307419726954425</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.18210525898465</v>
+        <v>1.264577209906776e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.307419726954425</v>
+        <v>1336442224.77879</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.264577209906776e-16</v>
+        <v>9.031887596856522e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1336442224.77879</v>
+        <v>225.8633306509081</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.031887596856522e-08</v>
+        <v>0.0001230376345792096</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>225.8633306509081</v>
+        <v>8.819048621545958</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001230376345792096</v>
+        <v>1.530907960750601</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.819048621545958</v>
+        <v>0.009569328139148941</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.530907960750601</v>
+        <v>3.668477930242621</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009569328139148941</v>
+        <v>0.9589495051242678</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.668477930242621</v>
+        <v>1.284593274373012</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9589495051242678</v>
+        <v>64</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.284593274373012</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.9928433110729955</v>
       </c>
     </row>
@@ -6734,72 +6710,66 @@
         <v>1.586145732106306e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1470089864341956</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.590102936552359</v>
+        <v>2.830468517436218e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.000453011011453529</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.830468517436218e-06</v>
+        <v>0.147214117433014</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.000453011011453529</v>
+        <v>0.02162573069228208</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.147214117433014</v>
+        <v>1.929962079913702</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02162573069228208</v>
+        <v>2.054651653413391</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.936854857970515</v>
+        <v>4.53540242058936</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.054651653413391</v>
+        <v>1.788757884439731e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.53540242058936</v>
+        <v>939786570.1882151</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.788757884439731e-16</v>
+        <v>1.28574069529336e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>939786570.1882151</v>
+        <v>157.9828812566778</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.28574069529336e-07</v>
+        <v>0.0001678063550757268</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>157.9828812566778</v>
+        <v>10.11013373007326</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001678063550757268</v>
+        <v>1.549139566350942</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.11013373007326</v>
+        <v>0.01715229370072619</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.549139566350942</v>
+        <v>3.406566214376834</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01715229370072619</v>
+        <v>0.9585371706155643</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.406566214376834</v>
+        <v>1.28668440274914</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9585371706155643</v>
+        <v>43</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.28668440274914</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.8133162954094919</v>
       </c>
     </row>
@@ -6814,72 +6784,66 @@
         <v>1.594660333857133e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1425263119065335</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.603655103990998</v>
+        <v>2.829536029806496e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01035913378572805</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.829536029806496e-06</v>
+        <v>0.11475819187646</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01035913378572805</v>
+        <v>0.01325336442520808</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.11475819187646</v>
+        <v>1.930709818628427</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01325336442520808</v>
+        <v>2.043465924985373</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.93836035581535</v>
+        <v>4.308292131826483</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.043465924985373</v>
+        <v>2.15382235193084e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.308292131826483</v>
+        <v>747093805.7879608</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.15382235193084e-16</v>
+        <v>1.606463726870132e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>747093805.7879608</v>
+        <v>120.215412498945</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.606463726870132e-07</v>
+        <v>0.0001601917853893105</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>120.215412498945</v>
+        <v>11.47976154500075</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001601917853893105</v>
+        <v>1.261105635236167</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.47976154500075</v>
+        <v>0.02111086244398383</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.261105635236167</v>
+        <v>3.278069590157018</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02111086244398383</v>
+        <v>0.9577034200085338</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.278069590157018</v>
+        <v>1.29644776617418</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9577034200085338</v>
+        <v>14</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.29644776617418</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.7289960861933398</v>
       </c>
     </row>
@@ -6894,72 +6858,66 @@
         <v>1.607489921096894e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1157604172236233</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.637495883605638</v>
+        <v>2.827364282131895e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01608623753593054</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.827364282131895e-06</v>
+        <v>0.09522215878619085</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01608623753593054</v>
+        <v>0.009313282628985153</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09522215878619085</v>
+        <v>1.926439176308871</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.009313282628985153</v>
+        <v>2.02531833351452</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.929836133735679</v>
+        <v>4.063414131150068</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.02531833351452</v>
+        <v>2.836845783041078e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.063414131150068</v>
+        <v>563338473.0098401</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.836845783041078e-16</v>
+        <v>2.131039011347734e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>563338473.0098401</v>
+        <v>90.0273676397785</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.131039011347734e-07</v>
+        <v>0.0001466814949636053</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>90.0273676397785</v>
+        <v>11.71243927285337</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001466814949636053</v>
+        <v>1.083975757295662</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.71243927285337</v>
+        <v>0.0201219484430421</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.083975757295662</v>
+        <v>3.108783515939537</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0201219484430421</v>
+        <v>0.9578997271043149</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.108783515939537</v>
+        <v>1.316654286765553</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9578997271043149</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.316654286765553</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.6020294147362998</v>
       </c>
     </row>
@@ -6974,72 +6932,66 @@
         <v>1.61581787736009e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.07106339066833028</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.6641606920489</v>
+        <v>2.824506154242653e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01889752160915262</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.824506154242653e-06</v>
+        <v>0.08561474365505181</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01889752160915262</v>
+        <v>0.007678860791938874</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08561474365505181</v>
+        <v>1.919502073115402</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.007678860791938874</v>
+        <v>2.074777421761195</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.924012047176827</v>
+        <v>3.861054987837055</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.074777421761195</v>
+        <v>3.141998164262613e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.861054987837055</v>
+        <v>509916192.3317168</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.141998164262613e-16</v>
+        <v>2.347688778720677e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>509916192.3317168</v>
+        <v>81.69651545825427</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.347688778720677e-07</v>
+        <v>0.0001442556786708255</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>81.69651545825427</v>
+        <v>11.54035084509101</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001442556786708255</v>
+        <v>1.05726120558233</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.54035084509101</v>
+        <v>0.01921192766647257</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.05726120558233</v>
+        <v>3.005085128314441</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01921192766647257</v>
+        <v>0.9580947643067328</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.005085128314441</v>
+        <v>1.321514765748237</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9580947643067328</v>
+        <v>12</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.321514765748237</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.5369195212545786</v>
       </c>
     </row>
@@ -7054,72 +7006,66 @@
         <v>1.616670623276291e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01960802658575588</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.669791031306098</v>
+        <v>2.821360266275379e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01964491895616946</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.821360266275379e-06</v>
+        <v>0.08324289781604818</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01964491895616946</v>
+        <v>0.007308117428124252</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08324289781604818</v>
+        <v>1.898843153766679</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.007308117428124252</v>
+        <v>1.828931433915695</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.896825033326348</v>
+        <v>4.676164824923742</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.828931433915695</v>
+        <v>4.652447440338806e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.676164824923742</v>
+        <v>347609292.962359</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.652447440338806e-16</v>
+        <v>3.434269327178511e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>347609292.962359</v>
+        <v>56.21655552259394</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.434269327178511e-07</v>
+        <v>0.0001421461284088757</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>56.21655552259394</v>
+        <v>11.42152983636736</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001421461284088757</v>
+        <v>1.130661054979469</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.42152983636736</v>
+        <v>0.01854315346733586</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.130661054979469</v>
+        <v>3.198828070378713</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01854315346733586</v>
+        <v>0.9578242328300561</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.198828070378713</v>
+        <v>1.370307263933844</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9578242328300561</v>
+        <v>12</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.370307263933844</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.5586400226661493</v>
       </c>
     </row>
@@ -7134,72 +7080,66 @@
         <v>1.609521116011985e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.02857850004901467</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.652803585231478</v>
+        <v>2.818239187190603e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01871675442877656</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.818239187190603e-06</v>
+        <v>0.08678168634301801</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01871675442877656</v>
+        <v>0.007872946846477642</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08678168634301801</v>
+        <v>1.844474730561211</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007872946846477642</v>
+        <v>1.760434465023285</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.832683092821356</v>
+        <v>4.379071022587206</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.760434465023285</v>
+        <v>7.361898400507054e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.379071022587206</v>
+        <v>224358903.2868148</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.361898400507054e-16</v>
+        <v>5.205230695248841e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>224358903.2868148</v>
+        <v>37.0575272312374</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.205230695248841e-07</v>
+        <v>0.0001528705626884685</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>37.0575272312374</v>
+        <v>12.46620970247332</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001528705626884685</v>
+        <v>1.204080753942609</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.46620970247332</v>
+        <v>0.02375706142035954</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.204080753942609</v>
+        <v>3.350951538947711</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02375706142035954</v>
+        <v>0.9544676226766167</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.350951538947711</v>
+        <v>1.426741636552642</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9544676226766167</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.426741636552642</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6514776280913519</v>
       </c>
     </row>
@@ -7214,72 +7154,66 @@
         <v>1.595490265103722e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.06509465631394597</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.620553883425897</v>
+        <v>2.815375335572116e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.0169449998473613</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.815375335572116e-06</v>
+        <v>0.09273156715569814</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0169449998473613</v>
+        <v>0.008881932628641471</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09273156715569814</v>
+        <v>1.704153786769997</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008881932628641471</v>
+        <v>1.474553601825878</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.648669093854462</v>
+        <v>6.561553311137432</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.474553601825878</v>
+        <v>2.751774456960973e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.561553311137432</v>
+        <v>67301867.8498714</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.751774456960973e-15</v>
+        <v>1.613405843933544e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>67301867.8498714</v>
+        <v>12.46427637052005</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.613405843933544e-06</v>
+        <v>0.0002903513191179889</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>12.46427637052005</v>
+        <v>10.32955841173709</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002903513191179889</v>
+        <v>1.909652493965292</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.32955841173709</v>
+        <v>0.03098042099617039</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.909652493965292</v>
+        <v>2.903564235734316</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03098042099617039</v>
+        <v>0.9501078001178096</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.903564235734316</v>
+        <v>1.784135005300687</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9501078001178096</v>
+        <v>15</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.784135005300687</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.3422617713362874</v>
       </c>
     </row>
@@ -7294,72 +7228,66 @@
         <v>1.577783064588704e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.08937538124893743</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.585018174772964</v>
+        <v>2.812800172593433e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01557133055870822</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.812800172593433e-06</v>
+        <v>0.09609186251583413</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01557133055870822</v>
+        <v>0.009475223840199561</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09609186251583413</v>
+        <v>1.685473687810341</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.009475223840199561</v>
+        <v>1.484901316208895</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.623297104696371</v>
+        <v>4.526667269840078</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.484901316208895</v>
+        <v>5.781879180427525e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.526667269840078</v>
+        <v>33188752.07708314</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.781879180427525e-15</v>
+        <v>3.264124114326743e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>33188752.07708314</v>
+        <v>6.368700973012616</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.264124114326743e-06</v>
+        <v>0.0002407638373210007</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>6.368700973012616</v>
+        <v>9.869356487944735</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002407638373210007</v>
+        <v>1.978781392771114</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.869356487944735</v>
+        <v>0.02345140835793487</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.978781392771114</v>
+        <v>2.987886976890414</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02345140835793487</v>
+        <v>0.9498910014769544</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.987886976890414</v>
+        <v>1.829303545841283</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9498910014769544</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.829303545841283</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1800680195790812</v>
       </c>
     </row>
@@ -7374,72 +7302,66 @@
         <v>1.55902541199518e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1067229366418431</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.550366993436758</v>
+        <v>2.810428886271186e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.0147465962247625</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.810428886271186e-06</v>
+        <v>0.09788046098216935</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0147465962247625</v>
+        <v>0.009797986882843494</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09788046098216935</v>
+        <v>1.674585499992122</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.009797986882843494</v>
+        <v>1.49195942755448</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.609023338258224</v>
+        <v>4.128880195109081</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.49195942755448</v>
+        <v>6.949628597708187e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.128880195109081</v>
+        <v>27622544.57528352</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.949628597708187e-15</v>
+        <v>3.905804796329566e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>27622544.57528352</v>
+        <v>5.302601151459915</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.905804796329566e-06</v>
+        <v>0.0001355484327706538</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>5.302601151459915</v>
+        <v>9.419047770292648</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001355484327706538</v>
+        <v>1.481869678137358</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.419047770292648</v>
+        <v>0.01202564833269142</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.481869678137358</v>
+        <v>3.165112064820322</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01202564833269142</v>
+        <v>0.9498286850598809</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.165112064820322</v>
+        <v>1.866242834708247</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9498286850598809</v>
+        <v>15</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.866242834708247</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1815613332229804</v>
       </c>
     </row>
@@ -7454,72 +7376,66 @@
         <v>1.540173699072697e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1214535533256358</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.515430760367772</v>
+        <v>2.808167178957183e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01453866971287147</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.808167178957183e-06</v>
+        <v>0.09913851150247149</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01453866971287147</v>
+        <v>0.01003980297299187</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09913851150247149</v>
+        <v>1.672265147919191</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01003980297299187</v>
+        <v>1.510746666194799</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.600391853347042</v>
+        <v>4.003191005341197</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.510746666194799</v>
+        <v>7.392877909843957e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.003191005341197</v>
+        <v>26188997.60308148</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.392877909843957e-15</v>
+        <v>4.121844500193164e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>26188997.60308148</v>
+        <v>5.070505823999563</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.121844500193164e-06</v>
+        <v>0.0001236805566402298</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.070505823999563</v>
+        <v>9.391936281689839</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001236805566402298</v>
+        <v>1.165771828601266</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.391936281689839</v>
+        <v>0.01090967231369915</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.165771828601266</v>
+        <v>2.997579531203025</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01090967231369915</v>
+        <v>0.949002378216899</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.997579531203025</v>
+        <v>1.845124839560821</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.949002378216899</v>
+        <v>3</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.845124839560821</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.191347072728403</v>
       </c>
     </row>
@@ -7534,72 +7450,66 @@
         <v>1.521276714873929e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1361338518763338</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.478242735456026</v>
+        <v>2.805925034230676e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01483521837995593</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.805925034230676e-06</v>
+        <v>0.1003843820997659</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01483521837995593</v>
+        <v>0.01029702725875415</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1003843820997659</v>
+        <v>1.659778692931041</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01029702725875415</v>
+        <v>1.490129045746261</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.585475012469962</v>
+        <v>3.984872483482097</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.490129045746261</v>
+        <v>7.461004493696856e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.984872483482097</v>
+        <v>25490115.26852441</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.461004493696856e-15</v>
+        <v>4.20110167723215e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>25490115.26852441</v>
+        <v>4.847757649701705</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.20110167723215e-06</v>
+        <v>0.0001266639293109955</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>4.847757649701705</v>
+        <v>9.23943093524262</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001266639293109955</v>
+        <v>1.207660959264764</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.23943093524262</v>
+        <v>0.01081293029416345</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.207660959264764</v>
+        <v>2.917650435852543</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01081293029416345</v>
+        <v>0.9488376285923823</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.917650435852543</v>
+        <v>1.849004322427241</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9488376285923823</v>
+        <v>3</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.849004322427241</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1944531391350545</v>
       </c>
     </row>
@@ -7614,72 +7524,66 @@
         <v>1.501967897401465e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1517270415816266</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.437528704191597</v>
+        <v>2.803632973820073e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01556069310520786</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.803632973820073e-06</v>
+        <v>0.1017218922649508</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01556069310520786</v>
+        <v>0.01058940174786208</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1017218922649508</v>
+        <v>1.653399383305824</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01058940174786208</v>
+        <v>1.4780319093976</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.576982063026579</v>
+        <v>3.993977909598959</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.4780319093976</v>
+        <v>7.427024242793089e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.993977909598959</v>
+        <v>25039870.44733155</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.427024242793089e-15</v>
+        <v>4.217641663794509e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>25039870.44733155</v>
+        <v>4.656707897078979</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.217641663794509e-06</v>
+        <v>0.0001264755231996206</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.656707897078979</v>
+        <v>8.370848757223133</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001264755231996206</v>
+        <v>1.268991275628991</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.370848757223133</v>
+        <v>0.008862280161367158</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.268991275628991</v>
+        <v>3.072526113035477</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008862280161367158</v>
+        <v>0.9473244081205148</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.072526113035477</v>
+        <v>1.881267692589349</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9473244081205148</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.881267692589349</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1867693507864562</v>
       </c>
     </row>
@@ -7694,72 +7598,66 @@
         <v>1.481520865327479e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.1678304661038777</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.392865704069443</v>
+        <v>2.801231317320409e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01671640508767541</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.801231317320409e-06</v>
+        <v>0.1030472020377952</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01671640508767541</v>
+        <v>0.01089803599701552</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1030472020377952</v>
+        <v>1.646034959709573</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01089803599701552</v>
+        <v>1.481119272261693</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.571368186412629</v>
+        <v>3.992329522394682</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.481119272261693</v>
+        <v>7.433158575681282e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.992329522394682</v>
+        <v>24990321.696196</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.433158575681282e-15</v>
+        <v>4.224011937023571e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>24990321.696196</v>
+        <v>4.642127787715592</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.224011937023571e-06</v>
+        <v>0.000142707274825782</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.642127787715592</v>
+        <v>7.855542386077107</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000142707274825782</v>
+        <v>1.644219068909278</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.855542386077107</v>
+        <v>0.008806401166005628</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.644219068909278</v>
+        <v>3.145722117178993</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008806401166005628</v>
+        <v>0.9472070609819083</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.145722117178993</v>
+        <v>1.840953393315369</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9472070609819083</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.840953393315369</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1680801988676471</v>
       </c>
     </row>
@@ -7774,72 +7672,66 @@
         <v>1.458682278871276e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1823893104138044</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.345279395363442</v>
+        <v>2.798654693782281e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.01843321858355787</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.798654693782281e-06</v>
+        <v>0.1040863957522317</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01843321858355787</v>
+        <v>0.01117321321655093</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1040863957522317</v>
+        <v>1.644314089111558</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01117321321655093</v>
+        <v>1.457575171174018</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.570314862039401</v>
+        <v>3.983510500825771</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.457575171174018</v>
+        <v>7.46610727723202e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.983510500825771</v>
+        <v>24863177.38267531</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>7.46610727723202e-15</v>
+        <v>4.244505363569886e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>24863177.38267531</v>
+        <v>4.615380200053414</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.244505363569886e-06</v>
+        <v>0.0001549359711686012</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>4.615380200053414</v>
+        <v>9.104693198503695</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001549359711686012</v>
+        <v>1.505883772484613</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.104693198503695</v>
+        <v>0.01284348522898758</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.505883772484613</v>
+        <v>3.059096388192902</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01284348522898758</v>
+        <v>0.9471214685154533</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.059096388192902</v>
+        <v>1.809935112225844</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9471214685154533</v>
+        <v>10</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.809935112225844</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1594973996292508</v>
       </c>
     </row>
@@ -7854,72 +7746,66 @@
         <v>1.431608874700322e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.1905485848647195</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.300094884484755</v>
+        <v>2.795839293486197e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.02041222496100769</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.795839293486197e-06</v>
+        <v>0.1048768670300369</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02041222496100769</v>
+        <v>0.0114152797722178</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1048768670300369</v>
+        <v>1.63898343753063</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.0114152797722178</v>
+        <v>1.443258269151329</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.564337800583902</v>
+        <v>3.955359628679701</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.443258269151329</v>
+        <v>7.572760215487406e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.955359628679701</v>
+        <v>24863695.63238243</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.572760215487406e-15</v>
+        <v>4.252738485873824e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>24863695.63238243</v>
+        <v>4.681505813473149</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.252738485873824e-06</v>
+        <v>0.0001373923723926406</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>4.681505813473149</v>
+        <v>10.13398421501682</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001373923723926406</v>
+        <v>1.161592217232442</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.13398421501682</v>
+        <v>0.01410987185880218</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.161592217232442</v>
+        <v>2.949000470264079</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01410987185880218</v>
+        <v>0.9473399890672762</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.949000470264079</v>
+        <v>1.874233432313428</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9473399890672762</v>
+        <v>10</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.874233432313428</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1736033728465913</v>
       </c>
     </row>
@@ -7934,72 +7820,66 @@
         <v>1.400443386947786e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.1872769194426711</v>
+        <v>4.283458987656407e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.266330841246188</v>
+        <v>2.792897464897594e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.283458987656407e-07</v>
+        <v>-0.02071159596551407</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.792897464897594e-06</v>
+        <v>0.1072921688430963</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02071159596551407</v>
+        <v>0.01194010075161123</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1072921688430963</v>
+        <v>1.628830989202396</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01194010075161123</v>
+        <v>1.443834892365801</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.55387909624098</v>
+        <v>3.863010997773918</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.443834892365801</v>
+        <v>7.939154788052095e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.863010997773918</v>
+        <v>23705746.20982061</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>7.939154788052095e-15</v>
+        <v>4.455282724259229e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>23705746.20982061</v>
+        <v>4.46150650537593</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.455282724259229e-06</v>
+        <v>0.0001328118332639555</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>4.46150650537593</v>
+        <v>9.95112751467691</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001328118332639555</v>
+        <v>1.131644748804887</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.95112751467691</v>
+        <v>0.01315168366265334</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.131644748804887</v>
+        <v>2.861002599545043</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01315168366265334</v>
+        <v>0.9478064404791768</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.861002599545043</v>
+        <v>1.885327095336896</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9478064404791768</v>
+        <v>10</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.885327095336896</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1833714583119796</v>
       </c>
     </row>
@@ -8014,72 +7894,66 @@
         <v>1.368649373317662e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1724812264995319</v>
+        <v>4.254187764211313e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.247496847373316</v>
+        <v>2.790147168192066e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.254187764211313e-07</v>
+        <v>-0.01859989148094649</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.790147168192066e-06</v>
+        <v>0.111618267756644</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.01859989148094649</v>
+        <v>0.01280241870880177</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.111618267756644</v>
+        <v>1.610880108441615</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01280241870880177</v>
+        <v>1.426102125871611</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.540674458306263</v>
+        <v>3.93822652214104</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.426102125871611</v>
+        <v>8.758292671712298e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.93822652214104</v>
+        <v>21530138.45434766</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.758292671712298e-15</v>
+        <v>4.867624443622903e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>21530138.45434766</v>
+        <v>4.059879083253274</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.867624443622903e-06</v>
+        <v>0.0001308515302803892</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>4.059879083253274</v>
+        <v>9.065880174601011</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001308515302803892</v>
+        <v>1.194708221798898</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.065880174601011</v>
+        <v>0.01075471126409401</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.194708221798898</v>
+        <v>3.002175120195583</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01075471126409401</v>
+        <v>0.9469974494251134</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.002175120195583</v>
+        <v>1.83601556787289</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9469974494251134</v>
+        <v>10</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.83601556787289</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1805890613500421</v>
       </c>
     </row>
@@ -8094,72 +7968,66 @@
         <v>1.340092236662912e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1476591380724739</v>
+        <v>4.185636966099333e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.246858532024346</v>
+        <v>2.787900381169663e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.185636966099333e-07</v>
+        <v>-0.01415453706285846</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.787900381169663e-06</v>
+        <v>0.1186814836166162</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01415453706285846</v>
+        <v>0.01427973362478299</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1186814836166162</v>
+        <v>1.619228051927388</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01427973362478299</v>
+        <v>1.440770054597642</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.544700093321849</v>
+        <v>3.951291937025508</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.440770054597642</v>
+        <v>1.002312477692309e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.951291937025508</v>
+        <v>19272117.04664204</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.002312477692309e-14</v>
+        <v>5.497155766004237e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>19272117.04664204</v>
+        <v>3.722733831948206</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.497155766004237e-06</v>
+        <v>0.0001426573953721223</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.722733831948206</v>
+        <v>8.793200615563723</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001426573953721223</v>
+        <v>1.350447463110074</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.793200615563723</v>
+        <v>0.01103032360136178</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.350447463110074</v>
+        <v>3.043818165161455</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01103032360136178</v>
+        <v>0.9473269026854074</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.043818165161455</v>
+        <v>1.85220060777132</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9473269026854074</v>
+        <v>10</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.85220060777132</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1678509907396111</v>
       </c>
     </row>
@@ -8174,72 +8042,66 @@
         <v>1.31934183897297e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1185014141525454</v>
+        <v>4.114100674460503e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.267095488968774</v>
+        <v>2.786443856679169e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.114100674460503e-07</v>
+        <v>-0.007273788876406968</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.786443856679169e-06</v>
+        <v>0.1302797138953933</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.007273788876406968</v>
+        <v>0.017012493767785</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1302797138953933</v>
+        <v>1.616370999714835</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.017012493767785</v>
+        <v>1.438870968499844</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.536562479094078</v>
+        <v>4.157126010461929</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.438870968499844</v>
+        <v>1.21596624644314e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.157126010461929</v>
+        <v>16131445.99752584</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.21596624644314e-14</v>
+        <v>6.589090143953876e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>16131445.99752584</v>
+        <v>3.164230532944582</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.589090143953876e-06</v>
+        <v>0.0001836800080231641</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>3.164230532944582</v>
+        <v>10.1400303925599</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001836800080231641</v>
+        <v>1.336576039107578</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.1400303925599</v>
+        <v>0.01888601816632269</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.336576039107578</v>
+        <v>2.805291926261164</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01888601816632269</v>
+        <v>0.9453081519277268</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.805291926261164</v>
+        <v>1.849502566455086</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9453081519277268</v>
+        <v>10</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.849502566455086</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1465093895634377</v>
       </c>
     </row>
@@ -8254,72 +8116,66 @@
         <v>1.313789219147617e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1078262478063707</v>
+        <v>4.254179081070179e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.279441063835709</v>
+        <v>2.786088820888228e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.254179081070179e-07</v>
+        <v>0.002460917110165118</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.786088820888228e-06</v>
+        <v>0.1489491805144471</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.002460917110165118</v>
+        <v>0.02216451755001848</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1489491805144471</v>
+        <v>1.609772673908865</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02216451755001848</v>
+        <v>1.403702517189958</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.52552310302989</v>
+        <v>4.054149975156514</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.403702517189958</v>
+        <v>1.578623277943343e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.054149975156514</v>
+        <v>12302506.82146597</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.578623277943343e-14</v>
+        <v>8.608820773370237e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>12302506.82146597</v>
+        <v>2.389272758776675</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.608820773370237e-06</v>
+        <v>0.0002361376075239481</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2.389272758776675</v>
+        <v>12.89620752154812</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002361376075239481</v>
+        <v>1.066104321070904</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>12.89620752154812</v>
+        <v>0.03927255755726623</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.066104321070904</v>
+        <v>2.231759114473832</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.03927255755726623</v>
+        <v>0.9428614757017677</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.231759114473832</v>
+        <v>1.823339041796192</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9428614757017677</v>
+        <v>10</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.823339041796192</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1309928176481975</v>
       </c>
     </row>
@@ -8334,72 +8190,66 @@
         <v>1.336475406046458e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1788229600518662</v>
+        <v>5.249477448705951e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.12354334365383</v>
+        <v>2.787215149191115e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.249477448705951e-07</v>
+        <v>0.01505324907989453</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.787215149191115e-06</v>
+        <v>0.1747660793795134</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.01505324907989453</v>
+        <v>0.03072263719895378</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1747660793795134</v>
+        <v>1.653869918285727</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03072263719895378</v>
+        <v>1.463852151156684</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.57063425182789</v>
+        <v>3.718179620506263</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.463852151156684</v>
+        <v>1.975378938184577e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.718179620506263</v>
+        <v>9778184.441108832</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.975378938184577e-14</v>
+        <v>1.099024269907837e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>9778184.441108832</v>
+        <v>1.888716910299013</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.099024269907837e-05</v>
+        <v>0.0002670619963243228</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1.888716910299013</v>
+        <v>14.64602394965739</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002670619963243228</v>
+        <v>0.9466677905404061</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>14.64602394965739</v>
+        <v>0.05728640526619363</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.9466677905404061</v>
+        <v>1.819234400914412</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.05728640526619363</v>
+        <v>0.9459339963046708</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1.819234400914412</v>
+        <v>1.859370808158815</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9459339963046708</v>
+        <v>10</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.859370808158815</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1269361992008994</v>
       </c>
     </row>
@@ -8414,72 +8264,66 @@
         <v>1.406899496601796e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.432902143250452</v>
+        <v>6.514690531559967e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.4011620409510503</v>
+        <v>2.790253294936926e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.514690531559967e-07</v>
+        <v>0.02954483921699629</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.790253294936926e-06</v>
+        <v>0.2010525930175318</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.02954483921699629</v>
+        <v>0.04123434338144979</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2010525930175318</v>
+        <v>1.672303991064598</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.04123434338144979</v>
+        <v>1.28588053722611</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.599822950970685</v>
+        <v>3.736803456233263</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.28588053722611</v>
+        <v>1.936272865837125e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.736803456233263</v>
+        <v>9315933.876228396</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.936272865837125e-14</v>
+        <v>1.168610416050269e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9315933.876228396</v>
+        <v>1.680425851422042</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.168610416050269e-05</v>
+        <v>0.0002650305051001623</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>1.680425851422042</v>
+        <v>14.77516458596527</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002650305051001623</v>
+        <v>0.9427642675548522</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>14.77516458596527</v>
+        <v>0.05785761389452</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>0.9427642675548522</v>
+        <v>1.846837946984943</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.05785761389452</v>
+        <v>0.945429205686014</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>1.846837946984943</v>
+        <v>1.700388249246953</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.945429205686014</v>
+        <v>7</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.700388249246953</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1290571898923634</v>
       </c>
     </row>
@@ -8494,72 +8338,66 @@
         <v>1.543394230511564e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.8917506217586531</v>
+        <v>7.877883883897602e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.122937824466788</v>
+        <v>2.795597856829213e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.877883883897602e-07</v>
+        <v>0.0424235186255471</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.795597856829213e-06</v>
+        <v>0.2132552485974925</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.0424235186255471</v>
+        <v>0.0472302317106543</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2132552485974925</v>
+        <v>1.569830319945366</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0472302317106543</v>
+        <v>1.330008236293255</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.494854925439384</v>
+        <v>4.038180909335789</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.330008236293255</v>
+        <v>1.618201439251578e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.038180909335789</v>
+        <v>12245290.70364585</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.618201439251578e-14</v>
+        <v>7.992244123971618e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>12245290.70364585</v>
+        <v>2.426446849069225</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.992244123971618e-06</v>
+        <v>0.0002432841116491198</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2.426446849069225</v>
+        <v>12.20833833620471</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002432841116491198</v>
+        <v>1.172476278957498</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>12.20833833620471</v>
+        <v>0.03625992155995153</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.172476278957498</v>
+        <v>2.268830328913336</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.03625992155995153</v>
+        <v>0.94309084652509</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.268830328913336</v>
+        <v>1.844467615174131</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.94309084652509</v>
+        <v>8</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.844467615174131</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1236104309475176</v>
       </c>
     </row>
@@ -8574,72 +8412,66 @@
         <v>1.742974302548724e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.377193922093868</v>
+        <v>9.057017840286049e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.751848720287114</v>
+        <v>2.803238782941509e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>9.057017840286049e-07</v>
+        <v>0.04972268241492173</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.803238782941509e-06</v>
+        <v>0.2054326852527633</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04972268241492173</v>
+        <v>0.04465247156242393</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2054326852527633</v>
+        <v>1.536466464116766</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.04465247156242393</v>
+        <v>1.357424981666625</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.45625637007704</v>
+        <v>4.171171207029047</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.357424981666625</v>
+        <v>2.259405217541124e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.171171207029047</v>
+        <v>8952688.112212269</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.259405217541124e-14</v>
+        <v>1.08622752052288e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>8952688.112212269</v>
+        <v>1.810927390365943</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.08622752052288e-05</v>
+        <v>0.0002552108957782282</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1.810927390365943</v>
+        <v>9.691098574881808</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002552108957782282</v>
+        <v>1.676166665252526</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.691098574881808</v>
+        <v>0.02396874163634756</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.676166665252526</v>
+        <v>2.47145524422292</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02396874163634756</v>
+        <v>0.9419278497803267</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.47145524422292</v>
+        <v>1.915330632634014</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9419278497803267</v>
+        <v>8</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.915330632634014</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1117588889404345</v>
       </c>
     </row>
@@ -8654,72 +8486,66 @@
         <v>1.981390976768114e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.709249827727442</v>
+        <v>9.949099506909289e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3.650024784339054</v>
+        <v>2.812755763773634e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>9.949099506909289e-07</v>
+        <v>0.05204600370323385</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.812755763773634e-06</v>
+        <v>0.187651993079956</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05204600370323385</v>
+        <v>0.0379117313467323</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.187651993079956</v>
+        <v>1.481290328976029</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.0379117313467323</v>
+        <v>1.399932230858917</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.410196576512073</v>
+        <v>3.79705658408665</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.399932230858917</v>
+        <v>2.726566039408539e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.79705658408665</v>
+        <v>7751066.63537522</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.726566039408539e-14</v>
+        <v>1.206227558401881e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>7751066.63537522</v>
+        <v>1.638094537467725</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.206227558401881e-05</v>
+        <v>0.0002129178201415567</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1.638094537467725</v>
+        <v>10.01081444675105</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002129178201415567</v>
+        <v>1.396639111855458</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.01081444675105</v>
+        <v>0.02133785868394104</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.396639111855458</v>
+        <v>2.535592973291337</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02133785868394104</v>
+        <v>0.9354352994612315</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.535592973291337</v>
+        <v>1.88689628329388</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9354352994612315</v>
+        <v>8</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.88689628329388</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1196956762525608</v>
       </c>
     </row>
@@ -8734,72 +8560,66 @@
         <v>2.237978924372111e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.873619063751832</v>
+        <v>1.067157516160689e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>3.814977805369431</v>
+        <v>2.823787818089444e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.067157516160689e-06</v>
+        <v>0.05236138308348676</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.823787818089444e-06</v>
+        <v>0.1693392456922043</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05236138308348676</v>
+        <v>0.03141260343834496</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1693392456922043</v>
+        <v>1.441399047802477</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03141260343834496</v>
+        <v>1.435981098244139</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.368301467389075</v>
+        <v>3.589495550284148</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.435981098244139</v>
+        <v>3.051007819120309e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.589495550284148</v>
+        <v>7179936.729004896</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.051007819120309e-14</v>
+        <v>1.280833231721725e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>7179936.729004896</v>
+        <v>1.572840034479124</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.280833231721725e-05</v>
+        <v>0.0001901373173874158</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1.572840034479124</v>
+        <v>11.03550612036607</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001901373173874158</v>
+        <v>1.112978217655937</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.03550612036607</v>
+        <v>0.02315537795356136</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.112978217655937</v>
+        <v>2.440487354996784</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02315537795356136</v>
+        <v>0.9311901601540009</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.440487354996784</v>
+        <v>1.908442057223554</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9311901601540009</v>
+        <v>8</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.908442057223554</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1325413437445007</v>
       </c>
     </row>
@@ -8814,72 +8634,66 @@
         <v>2.498719944556507e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.917239320079209</v>
+        <v>1.117293140567256e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3.528346457450819</v>
+        <v>2.836078971290599e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.117293140567256e-06</v>
+        <v>0.05128031909236918</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.836078971290599e-06</v>
+        <v>0.1522703984822119</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.05128031909236918</v>
+        <v>0.02581425071705802</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1522703984822119</v>
+        <v>1.439720051764552</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02581425071705802</v>
+        <v>1.432206510432225</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.36326011967777</v>
+        <v>3.365858457019899</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.432206510432225</v>
+        <v>3.469912005987373e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.365858457019899</v>
+        <v>6794338.291971633</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.469912005987373e-14</v>
+        <v>1.392765000433398e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>6794338.291971633</v>
+        <v>1.601816618348661</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.392765000433398e-05</v>
+        <v>0.0001850729448690149</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1.601816618348661</v>
+        <v>11.49023503590684</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001850729448690149</v>
+        <v>1.068205309780108</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.49023503590684</v>
+        <v>0.02443434830126074</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.068205309780108</v>
+        <v>2.340796331364877</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02443434830126074</v>
+        <v>0.9296329157975015</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.340796331364877</v>
+        <v>1.904943530304047</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9296329157975015</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.904943530304047</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1417711691907878</v>
       </c>
     </row>
@@ -8894,72 +8708,66 @@
         <v>2.752461852408937e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.884765286197536</v>
+        <v>1.153334841148632e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>3.021490496721746</v>
+        <v>2.849347254612969e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.153334841148632e-06</v>
+        <v>0.049789712239559</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.849347254612969e-06</v>
+        <v>0.137897746020845</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.049789712239559</v>
+        <v>0.02149392448505086</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.137897746020845</v>
+        <v>1.440842793255993</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02149392448505086</v>
+        <v>1.437016954037001</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.362578333623365</v>
+        <v>3.325367599675665</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.437016954037001</v>
+        <v>3.554928230509909e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.325367599675665</v>
+        <v>7087271.416241612</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>3.554928230509909e-14</v>
+        <v>1.372253243545464e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>7087271.416241612</v>
+        <v>1.785619693935919</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.372253243545464e-05</v>
+        <v>0.0001705715248194455</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1.785619693935919</v>
+        <v>10.91524290690517</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001705715248194455</v>
+        <v>1.100424590570222</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.91524290690517</v>
+        <v>0.02032232262348801</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.100424590570222</v>
+        <v>2.595919095756871</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02032232262348801</v>
+        <v>0.928431687392711</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.595919095756871</v>
+        <v>1.883806755367871</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.928431687392711</v>
+        <v>1</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.883806755367871</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1459292061059501</v>
       </c>
     </row>
@@ -8974,72 +8782,66 @@
         <v>2.995405963817452e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.812133896410843</v>
+        <v>1.179696791035979e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.457010277545754</v>
+        <v>2.863443281116669e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.179696791035979e-06</v>
+        <v>0.04822488884666213</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.863443281116669e-06</v>
+        <v>0.1260734494683534</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.04822488884666213</v>
+        <v>0.01821995820735916</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1260734494683534</v>
+        <v>1.434676810153626</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01821995820735916</v>
+        <v>1.433708761121199</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.350875756198958</v>
+        <v>3.245483148843942</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.433708761121199</v>
+        <v>3.732084275811827e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.245483148843942</v>
+        <v>6904573.373872224</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.732084275811827e-14</v>
+        <v>1.412638585956063e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>6904573.373872224</v>
+        <v>1.779201518214174</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.412638585956063e-05</v>
+        <v>0.0001725804432187244</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1.779201518214174</v>
+        <v>9.588111279694479</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001725804432187244</v>
+        <v>1.44551078888733</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.588111279694479</v>
+        <v>0.01586564423594888</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.44551078888733</v>
+        <v>2.921321044721024</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01586564423594888</v>
+        <v>0.928160496242647</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.921321044721024</v>
+        <v>1.896737654872923</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.928160496242647</v>
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.896737654872923</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1428667416649587</v>
       </c>
     </row>
@@ -9054,72 +8856,66 @@
         <v>3.223320774787919e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.718030141559362</v>
+        <v>1.192653056507547e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.900837033739107</v>
+        <v>2.878165197134419e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.192653056507547e-06</v>
+        <v>0.0464264046844809</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.878165197134419e-06</v>
+        <v>0.1164215287971455</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.0464264046844809</v>
+        <v>0.0157094144089517</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1164215287971455</v>
+        <v>1.431884205329928</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.0157094144089517</v>
+        <v>1.415565004818155</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.345201165929066</v>
+        <v>3.213355005785882</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.415565004818155</v>
+        <v>3.807086484474557e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.213355005785882</v>
+        <v>6774735.642238066</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>3.807086484474557e-14</v>
+        <v>1.436124581369534e-05</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>6774735.642238066</v>
+        <v>1.747340121672061</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.436124581369534e-05</v>
+        <v>0.0001832192675320203</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>1.747340121672061</v>
+        <v>9.475739180933092</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001832192675320203</v>
+        <v>1.585263280095131</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.475739180933092</v>
+        <v>0.01645119079482232</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.585263280095131</v>
+        <v>2.974349159082402</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01645119079482232</v>
+        <v>0.9273493080288902</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.974349159082402</v>
+        <v>1.902666274060109</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9273493080288902</v>
+        <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.902666274060109</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1434452626829719</v>
       </c>
     </row>
@@ -9134,72 +8930,66 @@
         <v>3.433647969785291e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.613711184536405</v>
+        <v>1.197419963707566e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.384121756322196</v>
+        <v>2.893332444072685e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.197419963707566e-06</v>
+        <v>0.04469020858887455</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.893332444072685e-06</v>
+        <v>0.1086463233431897</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.04469020858887455</v>
+        <v>0.01380131961021375</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1086463233431897</v>
+        <v>1.446354750167191</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01380131961021375</v>
+        <v>1.403432837588915</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.357583177810347</v>
+        <v>3.224280302350845</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.403432837588915</v>
+        <v>3.781329989213231e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.224280302350845</v>
+        <v>6898209.952269551</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.781329989213231e-14</v>
+        <v>1.423457589230912e-05</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>6898209.952269551</v>
+        <v>1.799357239987668</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.423457589230912e-05</v>
+        <v>0.0001660490005170786</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>1.799357239987668</v>
+        <v>10.41879288849645</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001660490005170786</v>
+        <v>1.211354145781132</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.41879288849645</v>
+        <v>0.01802482577920873</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.211354145781132</v>
+        <v>2.84485591018182</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01802482577920873</v>
+        <v>0.9266879602598951</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.84485591018182</v>
+        <v>1.886157178669188</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9266879602598951</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.886157178669188</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1520548958577189</v>
       </c>
     </row>
@@ -9214,72 +9004,66 @@
         <v>3.626040634923231e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.506218019507795</v>
+        <v>1.197658955590414e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.9205998239428439</v>
+        <v>2.908829751152308e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.197658955590414e-06</v>
+        <v>0.04311698533902823</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.908829751152308e-06</v>
+        <v>0.1023564516590205</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.04311698533902823</v>
+        <v>0.01233600844090478</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1023564516590205</v>
+        <v>1.450667735466257</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01233600844090478</v>
+        <v>1.384605945343769</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.358149966416665</v>
+        <v>3.274838954456077</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.384605945343769</v>
+        <v>3.665475017117099e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.274838954456077</v>
+        <v>7150376.984313666</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.665475017117099e-14</v>
+        <v>1.376473693920248e-05</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>7150376.984313666</v>
+        <v>1.874080072036411</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.376473693920248e-05</v>
+        <v>0.0001665686481820425</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>1.874080072036411</v>
+        <v>11.26226343256495</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001665686481820425</v>
+        <v>1.095532114983072</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.26226343256495</v>
+        <v>0.0211273304122443</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.095532114983072</v>
+        <v>2.610050861345495</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0211273304122443</v>
+        <v>0.9241676527177517</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.610050861345495</v>
+        <v>1.882035685196089</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9241676527177517</v>
+        <v>10</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.882035685196089</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1580757817266749</v>
       </c>
     </row>
@@ -9294,72 +9078,66 @@
         <v>3.801589387234741e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.399660252949702</v>
+        <v>1.197658955590414e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.5132442582154981</v>
+        <v>2.924601210493987e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.197658955590414e-06</v>
+        <v>0.04182410135987264</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.924601210493987e-06</v>
+        <v>0.09715936846587521</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.04182410135987264</v>
+        <v>0.01118929803565922</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.09715936846587521</v>
+        <v>1.448619169074025</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01118929803565922</v>
+        <v>1.372278182388489</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.359187370505289</v>
+        <v>3.369696215020607</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.372278182388489</v>
+        <v>3.462012718629172e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.369696215020607</v>
+        <v>7579813.568559391</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.462012718629172e-14</v>
+        <v>1.292517232937354e-05</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>7579813.568559391</v>
+        <v>1.989050029982122</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.292517232937354e-05</v>
+        <v>0.0001563106376611014</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>1.989050029982122</v>
+        <v>10.89641177364935</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001563106376611014</v>
+        <v>1.099251321868038</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.89641177364935</v>
+        <v>0.01855904173378557</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.099251321868038</v>
+        <v>2.738447108427962</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01855904173378557</v>
+        <v>0.9225991831878335</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.738447108427962</v>
+        <v>1.901318769862766</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9225991831878335</v>
+        <v>28</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.901318769862766</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1606544502914747</v>
       </c>
     </row>
@@ -9374,72 +9152,66 @@
         <v>3.962241962219554e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.296264787876686</v>
+        <v>1.197658955590414e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.159364900162561</v>
+        <v>2.94064292347499e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.197658955590414e-06</v>
+        <v>0.04087372151372538</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.94064292347499e-06</v>
+        <v>0.09274228454377255</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.04087372151372538</v>
+        <v>0.01027188690241694</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.09274228454377255</v>
+        <v>1.433169762834548</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01027188690241694</v>
+        <v>1.343768783104019</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.345377226798619</v>
+        <v>3.509018720543879</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.343768783104019</v>
+        <v>3.192557948212437e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.509018720543879</v>
+        <v>8256036.686063712</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.192557948212437e-14</v>
+        <v>1.178177212560407e-05</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>8256036.686063712</v>
+        <v>2.176115874482744</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.178177212560407e-05</v>
+        <v>0.0001460788680102904</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>2.176115874482744</v>
+        <v>10.03694587871449</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001460788680102904</v>
+        <v>1.294357578011368</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.03694587871449</v>
+        <v>0.01471602644119014</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.294357578011368</v>
+        <v>3.060973695060266</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01471602644119014</v>
+        <v>0.9223247037554292</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.060973695060266</v>
+        <v>1.894596297814731</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9223247037554292</v>
+        <v>28</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.894596297814731</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1649026543632706</v>
       </c>
     </row>
@@ -9454,72 +9226,66 @@
         <v>4.11186819019529e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.197538382449532</v>
+        <v>1.211192483741441e-06</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.1449021228770855</v>
+        <v>2.957067124616356e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.211192483741441e-06</v>
+        <v>0.04061248454504137</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.957067124616356e-06</v>
+        <v>0.08880320168504338</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.04061248454504137</v>
+        <v>0.00953527549560013</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.08880320168504338</v>
+        <v>1.427258003940133</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.00953527549560013</v>
+        <v>1.327269554811975</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.338214415942598</v>
+        <v>3.659568251905187</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.327269554811975</v>
+        <v>2.935286226465965e-14</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.659568251905187</v>
+        <v>9101225.101255016</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.935286226465965e-14</v>
+        <v>1.071940956237123e-05</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>9101225.101255016</v>
+        <v>2.431365044348244</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.071940956237123e-05</v>
+        <v>0.0001547635872530718</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>2.431365044348244</v>
+        <v>9.778657451513858</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001547635872530718</v>
+        <v>1.64527799541019</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.778657451513858</v>
+        <v>0.01479882564772541</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.64527799541019</v>
+        <v>3.277273258336851</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01479882564772541</v>
+        <v>0.9225042479178288</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.277273258336851</v>
+        <v>1.897657714679094</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9225042479178288</v>
+        <v>28</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.897657714679094</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.179147602078733</v>
       </c>
     </row>
@@ -9534,72 +9300,66 @@
         <v>4.257258058114089e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1.105062529514946</v>
+        <v>1.247541897819059e-06</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.4020556749477109</v>
+        <v>2.974168519640728e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.247541897819059e-06</v>
+        <v>0.04125293167431709</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.974168519640728e-06</v>
+        <v>0.08542641754870564</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.04125293167431709</v>
+        <v>0.008998879526003293</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.08542641754870564</v>
+        <v>1.399882525134555</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.008998879526003293</v>
+        <v>1.339475358525496</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.320678140777915</v>
+        <v>3.779026636762523</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.339475358525496</v>
+        <v>2.656874352864775e-14</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.779026636762523</v>
+        <v>10872744.60674172</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.656874352864775e-14</v>
+        <v>8.65540407623093e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>10872744.60674172</v>
+        <v>3.140865869540559</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>8.65540407623093e-06</v>
+        <v>0.0001494880621926226</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>3.140865869540559</v>
+        <v>11.10508319554786</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001494880621926226</v>
+        <v>1.435938670621067</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>11.10508319554786</v>
+        <v>0.01843529727591544</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.435938670621067</v>
+        <v>3.266988382911901</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01843529727591544</v>
+        <v>0.9153332485935385</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.266988382911901</v>
+        <v>1.875962313850208</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9153332485935385</v>
+        <v>28</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.875962313850208</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2095131211353389</v>
       </c>
     </row>
@@ -9614,72 +9374,66 @@
         <v>4.403508397694004e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1.019732499500617</v>
+        <v>1.286258479183813e-06</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.6153275644726302</v>
+        <v>2.992206660936683e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.286258479183813e-06</v>
+        <v>0.0419209817097258</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.992206660936683e-06</v>
+        <v>0.08225233306177071</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.0419209817097258</v>
+        <v>0.008522703357024149</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.08225233306177071</v>
+        <v>1.386812705357167</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.008522703357024149</v>
+        <v>1.443781212669353</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.30469284914636</v>
+        <v>4.003618423823261</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.443781212669353</v>
+        <v>2.236456437957081e-14</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.003618423823261</v>
+        <v>13525543.94114847</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.236456437957081e-14</v>
+        <v>6.842450890045963e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>13525543.94114847</v>
+        <v>4.091380987037629</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>6.842450890045963e-06</v>
+        <v>0.0001309585204248687</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>4.091380987037629</v>
+        <v>12.99422050227971</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001309585204248687</v>
+        <v>1.087003002734021</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>12.99422050227971</v>
+        <v>0.02211231558993062</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.087003002734021</v>
+        <v>3.163312821302529</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.02211231558993062</v>
+        <v>0.9123845798159516</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.163312821302529</v>
+        <v>1.915910171049525</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9123845798159516</v>
+        <v>29</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.915910171049525</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2234552342923826</v>
       </c>
     </row>
@@ -9694,72 +9448,66 @@
         <v>4.545862705956228e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.9392581581594511</v>
+        <v>1.30650123799043e-06</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.796579618443721</v>
+        <v>3.010980056801793e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.30650123799043e-06</v>
+        <v>0.04191435618042295</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>3.010980056801793e-06</v>
+        <v>0.07908912015151641</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.04191435618042295</v>
+        <v>0.008011963571363993</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.07908912015151641</v>
+        <v>1.408377652125911</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.008011963571363993</v>
+        <v>1.409965947145577</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.322219009795277</v>
+        <v>4.017268547868661</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.409965947145577</v>
+        <v>2.221283918306704e-14</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.017268547868661</v>
+        <v>13715725.50148143</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2.221283918306704e-14</v>
+        <v>6.961903384997163e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>13715725.50148143</v>
+        <v>4.178704319486036</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>6.961903384997163e-06</v>
+        <v>0.0001282291019410955</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>4.178704319486036</v>
+        <v>9.616015937177094</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001282291019410955</v>
+        <v>1.38127348828604</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.616015937177094</v>
+        <v>0.01185705814439605</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.38127348828604</v>
+        <v>3.283475925184756</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01185705814439605</v>
+        <v>0.913405475318409</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.283475925184756</v>
+        <v>1.854892895883398</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.913405475318409</v>
+        <v>29</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.854892895883398</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.1940227123953144</v>
       </c>
     </row>
@@ -9774,72 +9522,66 @@
         <v>4.680764084901605e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.8620127609335689</v>
+        <v>1.325707964850273e-06</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.9539918418981022</v>
+        <v>3.030318819620991e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.325707964850273e-06</v>
+        <v>0.04193577715663186</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>3.030318819620991e-06</v>
+        <v>0.07621338404926148</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.04193577715663186</v>
+        <v>0.007567132099519613</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.07621338404926148</v>
+        <v>1.400617813219893</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.007567132099519613</v>
+        <v>1.360382297217309</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.315746166563577</v>
+        <v>4.270638718653925</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.360382297217309</v>
+        <v>1.939275342440672e-14</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.270638718653925</v>
+        <v>15821175.89774946</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.939275342440672e-14</v>
+        <v>6.002700725026219e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>15821175.89774946</v>
+        <v>4.854192484190739</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.002700725026219e-06</v>
+        <v>0.0001096460032870957</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>4.854192484190739</v>
+        <v>7.306129371428093</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001096460032870957</v>
+        <v>1.329853948655435</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.306129371428093</v>
+        <v>0.005852851726245697</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.329853948655435</v>
+        <v>3.306129979449531</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.005852851726245697</v>
+        <v>0.9096384896193458</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.306129979449531</v>
+        <v>1.900575818274915</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9096384896193458</v>
+        <v>30</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.900575818274915</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2069763071762516</v>
       </c>
     </row>
@@ -9854,72 +9596,66 @@
         <v>4.8082039574954e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.7877469098353632</v>
+        <v>1.341244525190596e-06</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.090539623946488</v>
+        <v>3.050218447535742e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.341244525190596e-06</v>
+        <v>0.04188097711006671</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>3.050218447535742e-06</v>
+        <v>0.07361339458676423</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.04188097711006671</v>
+        <v>0.007173082583537828</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.07361339458676423</v>
+        <v>1.427349932539116</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.007173082583537828</v>
+        <v>1.478939756441153</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.337164003474365</v>
+        <v>4.121850004318585</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.478939756441153</v>
+        <v>1.701776905126549e-14</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.121850004318585</v>
+        <v>17805887.87799269</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.701776905126549e-14</v>
+        <v>5.410074583251945e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>17805887.87799269</v>
+        <v>5.395477604464372</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>5.410074583251945e-06</v>
+        <v>0.0001035084771572063</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>5.395477604464372</v>
+        <v>6.807660655369722</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001035084771572063</v>
+        <v>1.256337202129013</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>6.807660655369722</v>
+        <v>0.004797022079900828</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.256337202129013</v>
+        <v>3.285701879408793</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.004797022079900828</v>
+        <v>0.9186211305656388</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.285701879408793</v>
+        <v>1.915934559682532</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9186211305656388</v>
+        <v>30</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.915934559682532</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2204221566985053</v>
       </c>
     </row>
@@ -10296,7 +10032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.5067107338758</v>
+        <v>1.512452445734179</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.386001275230327</v>
@@ -10385,7 +10121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552041132663622</v>
+        <v>1.559458392744501</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.274455898454822</v>
@@ -10474,7 +10210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56853525303124</v>
+        <v>1.57321338221469</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.420742677967357</v>
@@ -10563,7 +10299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.613065616935425</v>
+        <v>1.616066271297558</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.604020618997377</v>
@@ -10652,7 +10388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.617557575618649</v>
+        <v>1.619266272012674</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.586661540038203</v>
@@ -10741,7 +10477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.616619603654627</v>
+        <v>1.614779151973732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.640638716249001</v>
@@ -10830,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60463876513901</v>
+        <v>1.605070015936036</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.503971181976318</v>
@@ -10919,7 +10655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614970644007389</v>
+        <v>1.619583754397998</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.541119192333811</v>
@@ -11008,7 +10744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.641977272841034</v>
+        <v>1.645405152313849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.515419180913201</v>
@@ -11097,7 +10833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643443948625986</v>
+        <v>1.647171730713869</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.610088666045578</v>
@@ -11186,7 +10922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630496228181513</v>
+        <v>1.636010657161675</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.577888155255769</v>
@@ -11275,7 +11011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.640769731694371</v>
+        <v>1.651734880078128</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.621254207846127</v>
@@ -11364,7 +11100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.646485820908934</v>
+        <v>1.655793120939804</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.605348642668843</v>
@@ -11453,7 +11189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.674409726617618</v>
+        <v>1.675912399889858</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.55590791307149</v>
@@ -11542,7 +11278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712489193287579</v>
+        <v>1.70366670777759</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.381622936248028</v>
@@ -11631,7 +11367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.670403367578635</v>
+        <v>1.663855175147518</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.518233868624081</v>
@@ -11720,7 +11456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663392377244979</v>
+        <v>1.651416369638303</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.4519182799535</v>
@@ -11809,7 +11545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.662801645564818</v>
+        <v>1.64673190609952</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.571465324905103</v>
@@ -11898,7 +11634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.630415661301198</v>
+        <v>1.613837486945366</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.561611746440724</v>
@@ -11987,7 +11723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.617382602736573</v>
+        <v>1.599642166843767</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.552759932036599</v>
@@ -12076,7 +11812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.649764773358867</v>
+        <v>1.624541128215808</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.582140614568583</v>
@@ -12165,7 +11901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.679664357213195</v>
+        <v>1.639748075784111</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.664978523344229</v>
@@ -12254,7 +11990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.660422620472572</v>
+        <v>1.627248162359717</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.791884997108434</v>
@@ -12343,7 +12079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627577159316071</v>
+        <v>1.592703107166543</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.552325562766328</v>
@@ -12432,7 +12168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625329222157267</v>
+        <v>1.591243786769354</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.897695058137421</v>
@@ -12521,7 +12257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.648414772200453</v>
+        <v>1.60873949397957</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.654817725351059</v>
@@ -12610,7 +12346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621591671466035</v>
+        <v>1.586113370503203</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.67039150257115</v>
@@ -12699,7 +12435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617069030030439</v>
+        <v>1.5839465703272</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.540100481927443</v>
@@ -12788,7 +12524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618805213829643</v>
+        <v>1.589254945666646</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.613681780920249</v>
@@ -12877,7 +12613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.599117207898661</v>
+        <v>1.575266864244671</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.757829113892999</v>
@@ -12966,7 +12702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.615181149958359</v>
+        <v>1.592146936176869</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.619476495968269</v>
@@ -13055,7 +12791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.53216184880058</v>
+        <v>1.523119130362237</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.041768122183127</v>
@@ -13144,7 +12880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.521306562649531</v>
+        <v>1.514819782058959</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.996775738928666</v>
@@ -13233,7 +12969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536467419161261</v>
+        <v>1.53163957577014</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.053925794196956</v>
@@ -13322,7 +13058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.52929216112908</v>
+        <v>1.524786658698959</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.052286619049009</v>
@@ -13411,7 +13147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524462805070534</v>
+        <v>1.524141982393352</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.027805600592029</v>
@@ -13500,7 +13236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540995247505452</v>
+        <v>1.539162514766964</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.995855050421834</v>
@@ -13589,7 +13325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538635715266345</v>
+        <v>1.530204612551537</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.049112964175791</v>
@@ -13678,7 +13414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.554227373149016</v>
+        <v>1.54229014390609</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.993550950032828</v>
@@ -13767,7 +13503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.550362111098183</v>
+        <v>1.533961499343951</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.011986773562384</v>
@@ -13856,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55060749910934</v>
+        <v>1.536038247627698</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.030569881063577</v>
@@ -13945,7 +13681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.556327262834553</v>
+        <v>1.531502482550451</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.986112375329658</v>
@@ -14034,7 +13770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.551495960714539</v>
+        <v>1.531168670211659</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.013782767422824</v>
@@ -14123,7 +13859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537703164648863</v>
+        <v>1.515621910044561</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.988915954219997</v>
@@ -14212,7 +13948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.543330379105836</v>
+        <v>1.519363955177265</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.046217761748555</v>
@@ -14301,7 +14037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574708755939122</v>
+        <v>1.541646036095273</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.050275533214525</v>
@@ -14390,7 +14126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647249097193974</v>
+        <v>1.597608621745445</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.67876955579506</v>
@@ -14479,7 +14215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.653080354110593</v>
+        <v>1.601405991762155</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.606805440025569</v>
@@ -14568,7 +14304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.658692946712725</v>
+        <v>1.608431632372796</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.679016054166493</v>
@@ -14657,7 +14393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.679230636575702</v>
+        <v>1.627048841488303</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.682935853088084</v>
@@ -14746,7 +14482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.682357821577239</v>
+        <v>1.622608471301432</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.700391578775111</v>
@@ -14835,7 +14571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.645176991475099</v>
+        <v>1.596022860646943</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.704174478091971</v>
@@ -14924,7 +14660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636814143078304</v>
+        <v>1.598146720690819</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.581143273949539</v>
@@ -15013,7 +14749,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.642378198344381</v>
+        <v>1.59968761924649</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.789841205312234</v>
@@ -15102,7 +14838,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.640320528708698</v>
+        <v>1.59901728465197</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.783943144797282</v>
@@ -15191,7 +14927,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.619725850685974</v>
+        <v>1.581895163810141</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.589403968805948</v>
@@ -15280,7 +15016,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.645378114949368</v>
+        <v>1.608775363831134</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.495043135648696</v>
@@ -15369,7 +15105,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.647958629319249</v>
+        <v>1.607231959235514</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.71927655058588</v>
@@ -15458,7 +15194,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.678363052511381</v>
+        <v>1.635764418669177</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.661192193372979</v>
@@ -15547,7 +15283,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.658493811896003</v>
+        <v>1.62236644399034</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.778773134218345</v>
@@ -15636,7 +15372,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.652950021111828</v>
+        <v>1.617109643310441</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.687942822566608</v>
@@ -15725,7 +15461,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.644215985194901</v>
+        <v>1.612377729289488</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.645251004038673</v>
@@ -15814,7 +15550,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.627275629911147</v>
+        <v>1.595461127269197</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.619315273970192</v>
@@ -15903,7 +15639,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.624723642357573</v>
+        <v>1.598174880833672</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.681234551093893</v>
@@ -15992,7 +15728,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.604573884017077</v>
+        <v>1.581503445352598</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.606322776920035</v>
@@ -16081,7 +15817,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.610075212924876</v>
+        <v>1.590091632888703</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.936373799582414</v>
@@ -16170,7 +15906,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.643202534487913</v>
+        <v>1.613062183407225</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.648996061976742</v>
@@ -16259,7 +15995,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.63085676968279</v>
+        <v>1.61171138008715</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.726010577534095</v>
@@ -16348,7 +16084,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.610213915377262</v>
+        <v>1.599494258704194</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.68949748391551</v>
@@ -16437,7 +16173,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.581831435387069</v>
+        <v>1.57992543015303</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.515198731201273</v>
@@ -16526,7 +16262,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.567202377164152</v>
+        <v>1.567904827085582</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.532028024452956</v>
@@ -16615,7 +16351,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.564468989256405</v>
+        <v>1.563277067716222</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.653198042325375</v>
@@ -16704,7 +16440,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.563320400328806</v>
+        <v>1.564673652915052</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.615120641093255</v>
@@ -16793,7 +16529,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.546546553843477</v>
+        <v>1.543569435086965</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.567572374557172</v>
@@ -16882,7 +16618,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.553765222284423</v>
+        <v>1.544256745893165</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.509437267805267</v>
@@ -16971,7 +16707,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.548207412284069</v>
+        <v>1.536816837082714</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.414428202392247</v>
@@ -17060,7 +16796,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.51002015122338</v>
+        <v>1.503992764735865</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.409868332321732</v>
@@ -17149,7 +16885,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.50851603115704</v>
+        <v>1.504497478837842</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.608158979615756</v>
@@ -17238,7 +16974,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.500384182915312</v>
+        <v>1.493536788950643</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.684652693400988</v>
@@ -17327,7 +17063,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.503521060256229</v>
+        <v>1.495805585943645</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.575042179279319</v>
@@ -17416,7 +17152,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.504917663088814</v>
+        <v>1.49652811737124</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.496875348083234</v>
@@ -17505,7 +17241,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.486446810112879</v>
+        <v>1.476344606315694</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.725785377878605</v>
@@ -17594,7 +17330,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.473007529730034</v>
+        <v>1.456359833409538</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.586216274532829</v>
@@ -17683,7 +17419,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.483076159730523</v>
+        <v>1.464045106147387</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.364021827061504</v>
@@ -17772,7 +17508,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.485352978126808</v>
+        <v>1.46397879896988</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.585017503591051</v>
@@ -17861,7 +17597,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.514294296844567</v>
+        <v>1.486615654698618</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.598726018023783</v>
@@ -17950,7 +17686,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.489473999482493</v>
+        <v>1.465255434152214</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.514191403829737</v>
@@ -18236,7 +17972,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.543916836784531</v>
+        <v>1.532585892617297</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.825587825327212</v>
@@ -18325,7 +18061,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.569337245544363</v>
+        <v>1.559248506957994</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.72793904508406</v>
@@ -18414,7 +18150,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.561812348987098</v>
+        <v>1.553678635912039</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.722175025226587</v>
@@ -18503,7 +18239,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566071769825804</v>
+        <v>1.554783989871137</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.877156399098118</v>
@@ -18592,7 +18328,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.551078934887379</v>
+        <v>1.543833334178373</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.895761331753623</v>
@@ -18681,7 +18417,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.524019266414101</v>
+        <v>1.515408704691487</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.705142440646418</v>
@@ -18770,7 +18506,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.495989232558965</v>
+        <v>1.486094057482704</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.708428817518339</v>
@@ -18859,7 +18595,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.479717348433146</v>
+        <v>1.47767753291431</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.672022991095543</v>
@@ -18948,7 +18684,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.484922014868595</v>
+        <v>1.4847235033194</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.613944599288168</v>
@@ -19037,7 +18773,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.477018385559738</v>
+        <v>1.475439687094186</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.656288856592549</v>
@@ -19126,7 +18862,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438386997376332</v>
+        <v>1.435369624276019</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.289510564777942</v>
@@ -19215,7 +18951,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436847951494243</v>
+        <v>1.433181209801488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.297062752108135</v>
@@ -19304,7 +19040,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.444116682899212</v>
+        <v>1.433227080461796</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.219321617393446</v>
@@ -19393,7 +19129,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.445975134353217</v>
+        <v>1.432117362763103</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.317107488887963</v>
@@ -19482,7 +19218,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.447729609687604</v>
+        <v>1.42647201661175</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.146716335353214</v>
@@ -19571,7 +19307,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.420526629125036</v>
+        <v>1.39467620108446</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.336271632304383</v>
@@ -19660,7 +19396,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.410947695235794</v>
+        <v>1.378618329720604</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.31917269080221</v>
@@ -19749,7 +19485,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.413437968044863</v>
+        <v>1.379964210388434</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.2362818621013</v>
@@ -19838,7 +19574,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.409788563516553</v>
+        <v>1.373058553169795</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.2953591394219</v>
@@ -19927,7 +19663,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.413964247411711</v>
+        <v>1.377797647967134</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.188983560466982</v>
@@ -20016,7 +19752,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.425886118111457</v>
+        <v>1.390434268218658</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.375495512402552</v>
@@ -20105,7 +19841,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.427285726805242</v>
+        <v>1.391897527135301</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.331992395934147</v>
@@ -20194,7 +19930,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.433734653294868</v>
+        <v>1.40203212154608</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.353995431316327</v>
@@ -20283,7 +20019,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.423943177836644</v>
+        <v>1.390555261758679</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.223020452435525</v>
@@ -20372,7 +20108,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.42807617294274</v>
+        <v>1.397654083347076</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.385437802888918</v>
@@ -20461,7 +20197,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.455063710509384</v>
+        <v>1.420125280157116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.462528852426593</v>
@@ -20550,7 +20286,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.45773747321458</v>
+        <v>1.420158903332303</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.565016703819931</v>
@@ -20639,7 +20375,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.453024826934486</v>
+        <v>1.419750265622598</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.516561233425586</v>
@@ -20728,7 +20464,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.459054999833731</v>
+        <v>1.426983672994317</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.542093522101445</v>
@@ -20817,7 +20553,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.457730538807447</v>
+        <v>1.427561763255611</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.466321963937544</v>
@@ -20906,7 +20642,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.48497399802948</v>
+        <v>1.45488553981534</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.381691698978472</v>
@@ -20995,7 +20731,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.484398608049201</v>
+        <v>1.464837994869166</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.693038019031024</v>
@@ -21084,7 +20820,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.458411542064917</v>
+        <v>1.441672958246189</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.537373864821784</v>
@@ -21173,7 +20909,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.463518902546684</v>
+        <v>1.449801256216791</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.535235870580659</v>
@@ -21262,7 +20998,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.473696855050538</v>
+        <v>1.458397185907264</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.604756982498768</v>
@@ -21351,7 +21087,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.488423820825222</v>
+        <v>1.466958007468287</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.376388171344315</v>
@@ -21440,7 +21176,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517331688399928</v>
+        <v>1.495826896190145</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.442511065882635</v>
@@ -21529,7 +21265,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.522535888634219</v>
+        <v>1.495456370296015</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.292137830689545</v>
@@ -21618,7 +21354,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530127149693863</v>
+        <v>1.500481806894179</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.485255608354981</v>
@@ -21707,7 +21443,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516072913339383</v>
+        <v>1.493078079883188</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.537860389566405</v>
@@ -21796,7 +21532,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.525830894834423</v>
+        <v>1.499644714024498</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.250104977784864</v>
@@ -21885,7 +21621,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.519134974302794</v>
+        <v>1.494054303376823</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.516141825938122</v>
@@ -21974,7 +21710,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.520661837761758</v>
+        <v>1.494530162107399</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.453619957361969</v>
@@ -22063,7 +21799,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.518139363692801</v>
+        <v>1.49088681127644</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.366999370398328</v>
@@ -22152,7 +21888,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.507375742987785</v>
+        <v>1.485475659204906</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.543609887249317</v>
@@ -22241,7 +21977,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.503676904149665</v>
+        <v>1.474503081079509</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.480932190616541</v>
@@ -22330,7 +22066,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.498590755030144</v>
+        <v>1.466160443432156</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.31100510284589</v>
@@ -22419,7 +22155,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.52608875996714</v>
+        <v>1.49074774765508</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.20309735571628</v>
@@ -22508,7 +22244,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.526392925129523</v>
+        <v>1.486680729397838</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.132376358384128</v>
@@ -22597,7 +22333,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.523050750908426</v>
+        <v>1.48772704794107</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.928490969233365</v>
@@ -22686,7 +22422,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.53167367219656</v>
+        <v>1.489590094778692</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.164616033792001</v>
@@ -22775,7 +22511,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.522437464165192</v>
+        <v>1.482402288196204</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.157724382774471</v>
@@ -22864,7 +22600,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.523046764181493</v>
+        <v>1.485551068140893</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.989708159287452</v>
@@ -22953,7 +22689,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.523675437896366</v>
+        <v>1.483789073471474</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.901688104298898</v>
@@ -23042,7 +22778,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.540850249793964</v>
+        <v>1.492865375651546</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.996561073273776</v>
@@ -23131,7 +22867,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.539611704795228</v>
+        <v>1.492526501269317</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.614298973147832</v>
@@ -23220,7 +22956,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.549204396882411</v>
+        <v>1.500039057677737</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.025585775750563</v>
@@ -23309,7 +23045,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.554931843761252</v>
+        <v>1.498519633229701</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.805095707872855</v>
@@ -23398,7 +23134,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.560999102503946</v>
+        <v>1.502029320627621</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.817060959804824</v>
@@ -23487,7 +23223,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558270540425295</v>
+        <v>1.499936201396498</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.631923699936183</v>
@@ -23576,7 +23312,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.553336619131087</v>
+        <v>1.498670340038483</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.776143429341066</v>
@@ -23665,7 +23401,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.540840834031177</v>
+        <v>1.484563554038467</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.975630259485495</v>
@@ -23754,7 +23490,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.528598659201888</v>
+        <v>1.474514090539443</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.645123399440006</v>
@@ -23843,7 +23579,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.508240600688397</v>
+        <v>1.4502559790049</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.464260102249765</v>
@@ -23932,7 +23668,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.475784329433598</v>
+        <v>1.433595788995294</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.407417628530898</v>
@@ -24021,7 +23757,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.469596056826435</v>
+        <v>1.432883650614067</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.447286600393095</v>
@@ -24110,7 +23846,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.476611240840108</v>
+        <v>1.436524835503407</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.479240601862163</v>
@@ -24199,7 +23935,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.472770821457198</v>
+        <v>1.436432108479015</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.418067667591192</v>
@@ -24288,7 +24024,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.464134852008929</v>
+        <v>1.430125072460022</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.460057579350248</v>
@@ -24377,7 +24113,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.460865618199954</v>
+        <v>1.429376417024757</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.412735366001966</v>
@@ -24466,7 +24202,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.447336548326833</v>
+        <v>1.421436641537197</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.382305390013983</v>
@@ -24555,7 +24291,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.447652271367794</v>
+        <v>1.41995582523742</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.491510774381009</v>
@@ -24644,7 +24380,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.433551057030289</v>
+        <v>1.413794174405817</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.426439379233632</v>
@@ -24733,7 +24469,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.435366256021417</v>
+        <v>1.412826139371655</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.352298926421187</v>
@@ -24822,7 +24558,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.422704917850896</v>
+        <v>1.403595852934941</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.419368372939161</v>
@@ -24911,7 +24647,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.422595219621406</v>
+        <v>1.40386782384196</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.295538207866121</v>
@@ -25000,7 +24736,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.409753714020354</v>
+        <v>1.403230070300917</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.299139369147241</v>
@@ -25089,7 +24825,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.413764289757284</v>
+        <v>1.408575672547195</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.543697388857479</v>
@@ -25178,7 +24914,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.452838775120098</v>
+        <v>1.450474983144664</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.127717063364531</v>
@@ -25267,7 +25003,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.447178140618545</v>
+        <v>1.444411104925713</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.546918723796043</v>
@@ -25356,7 +25092,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.437223663412266</v>
+        <v>1.431719955242302</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.508338637300695</v>
@@ -25445,7 +25181,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.44717309627579</v>
+        <v>1.440612708709993</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.612654249834362</v>
@@ -25534,7 +25270,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.455504111000521</v>
+        <v>1.444408233689088</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.70216845000154</v>
@@ -25623,7 +25359,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.451997597775068</v>
+        <v>1.445250839379036</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.566216504187751</v>
@@ -25712,7 +25448,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.457594262797216</v>
+        <v>1.450096665604643</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.569553512471716</v>
@@ -25801,7 +25537,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.461727741071042</v>
+        <v>1.452874130666412</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.674002719547045</v>
@@ -25890,7 +25626,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.445135222408351</v>
+        <v>1.440270131056129</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.499806475750922</v>
@@ -26176,7 +25912,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.6666003882056</v>
+        <v>1.619431766898755</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.110781267334609</v>
@@ -26265,7 +26001,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.683704333266373</v>
+        <v>1.634348067787716</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.965637668869621</v>
@@ -26354,7 +26090,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.68717399222043</v>
+        <v>1.635529588996291</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.104883501130705</v>
@@ -26443,7 +26179,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.709056235843335</v>
+        <v>1.653185945190426</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.146785265464338</v>
@@ -26532,7 +26268,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.709903347797274</v>
+        <v>1.653475114179594</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.146940388922384</v>
@@ -26621,7 +26357,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.696814466887484</v>
+        <v>1.636884662846234</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.241983526829599</v>
@@ -26710,7 +26446,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680761448610625</v>
+        <v>1.623071898538671</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.952534358681238</v>
@@ -26799,7 +26535,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.693680208597096</v>
+        <v>1.63620586281565</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.397022797963056</v>
@@ -26888,7 +26624,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700552463505046</v>
+        <v>1.643051785196674</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.366595152301187</v>
@@ -26977,7 +26713,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.702027805149515</v>
+        <v>1.644247882221045</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.257222051089489</v>
@@ -27066,7 +26802,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.691929605326619</v>
+        <v>1.643258234004899</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.121113838916153</v>
@@ -27155,7 +26891,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.696981531355574</v>
+        <v>1.651217568807625</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.145976328224495</v>
@@ -27244,7 +26980,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.699915828806753</v>
+        <v>1.638242285707226</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.28315795031518</v>
@@ -27333,7 +27069,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.717329563588127</v>
+        <v>1.643445434987095</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.315846547792878</v>
@@ -27422,7 +27158,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.728545061295425</v>
+        <v>1.652031258856727</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.354776718473103</v>
@@ -27511,7 +27247,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.724097099494942</v>
+        <v>1.648311646457621</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.288931987018803</v>
@@ -27600,7 +27336,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.729888824066868</v>
+        <v>1.647562349486325</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.312657992147774</v>
@@ -27689,7 +27425,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.723341898050688</v>
+        <v>1.640488052306702</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.093697191733949</v>
@@ -27778,7 +27514,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.712540777038968</v>
+        <v>1.629919305516619</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.306587536311262</v>
@@ -27867,7 +27603,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.708657404204116</v>
+        <v>1.620690510326017</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.937191606214694</v>
@@ -27956,7 +27692,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.725876313059755</v>
+        <v>1.627733198295661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.249950514042785</v>
@@ -28045,7 +27781,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.736735920135964</v>
+        <v>1.629623585916588</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.784453464487048</v>
@@ -28134,7 +27870,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.735242667606188</v>
+        <v>1.628403542400539</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.494428139141605</v>
@@ -28223,7 +27959,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716238127651839</v>
+        <v>1.614704923460354</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.601155932116236</v>
@@ -28312,7 +28048,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.708720535641951</v>
+        <v>1.609336622937944</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.355153499872618</v>
@@ -28401,7 +28137,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.700454423787102</v>
+        <v>1.605369336124556</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.214541414911317</v>
@@ -28490,7 +28226,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.691797648408029</v>
+        <v>1.598412381902788</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.368404651090556</v>
@@ -28579,7 +28315,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.691366172022292</v>
+        <v>1.610930461737226</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.428554195180361</v>
@@ -28668,7 +28404,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.69074560601636</v>
+        <v>1.616330943148823</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.510871530157711</v>
@@ -28757,7 +28493,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.684227154912614</v>
+        <v>1.608318643121752</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.560202376594567</v>
@@ -28846,7 +28582,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.68772518069453</v>
+        <v>1.612720434912528</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.458635103654677</v>
@@ -28935,7 +28671,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.680534661361564</v>
+        <v>1.606887215032648</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.317696591112671</v>
@@ -29024,7 +28760,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676464901595712</v>
+        <v>1.602845543950852</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.263770939159679</v>
@@ -29113,7 +28849,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680328789871483</v>
+        <v>1.607144928926074</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.787797145105119</v>
@@ -29202,7 +28938,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679358273795456</v>
+        <v>1.604714788637709</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.190545226366075</v>
@@ -29291,7 +29027,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680152927370727</v>
+        <v>1.608014716466855</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.323586543187667</v>
@@ -29380,7 +29116,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685167908739844</v>
+        <v>1.605144533010871</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.388077297926674</v>
@@ -29469,7 +29205,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.677648787983015</v>
+        <v>1.591223180470229</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.592320357012855</v>
@@ -29558,7 +29294,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.687535603663503</v>
+        <v>1.589552707318446</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.20280634172543</v>
@@ -29647,7 +29383,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.693467531931994</v>
+        <v>1.58310009122884</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.138714946984682</v>
@@ -29736,7 +29472,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.716672435193847</v>
+        <v>1.593222894595491</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.377749730228073</v>
@@ -29825,7 +29561,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.712015337256316</v>
+        <v>1.591232596455227</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.426993979645891</v>
@@ -29914,7 +29650,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.708568169399823</v>
+        <v>1.587764506322654</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.451602233776488</v>
@@ -30003,7 +29739,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.704195489372172</v>
+        <v>1.583504386635397</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.8135135015452</v>
@@ -30092,7 +29828,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.70519503995446</v>
+        <v>1.585639026484408</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.543278461185012</v>
@@ -30181,7 +29917,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.697778089308307</v>
+        <v>1.574978113491015</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.648843890690519</v>
@@ -30270,7 +30006,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.695464191649993</v>
+        <v>1.574058198374501</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.465086613114802</v>
@@ -30359,7 +30095,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.702429919362074</v>
+        <v>1.579851057584808</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.389223476388268</v>
@@ -30448,7 +30184,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705179522132419</v>
+        <v>1.588326648508255</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.656442712538382</v>
@@ -30537,7 +30273,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.688095965001021</v>
+        <v>1.57925468593068</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.170404625285926</v>
@@ -30626,7 +30362,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.686506641327998</v>
+        <v>1.580579351407776</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.266168276700971</v>
@@ -30715,7 +30451,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.684992054225825</v>
+        <v>1.585434307859525</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.263990212528911</v>
@@ -30804,7 +30540,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.684650752627369</v>
+        <v>1.594639136607088</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.24109066925546</v>
@@ -30893,7 +30629,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.681073089634568</v>
+        <v>1.592581705851693</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.427083525061588</v>
@@ -30982,7 +30718,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.674100154945722</v>
+        <v>1.581949872863722</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.127838309827372</v>
@@ -31071,7 +30807,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.665276447034088</v>
+        <v>1.57660373322406</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.314926542483659</v>
@@ -31160,7 +30896,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.67676150863789</v>
+        <v>1.584908289736912</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.30658555771145</v>
@@ -31249,7 +30985,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.686719320916701</v>
+        <v>1.597933447619099</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.165990229474304</v>
@@ -31338,7 +31074,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.689203770296197</v>
+        <v>1.601825591877905</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.325548677924431</v>
@@ -31427,7 +31163,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.632029950653109</v>
+        <v>1.563899912289849</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.571109653891447</v>
@@ -31516,7 +31252,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.630373083968866</v>
+        <v>1.568857353014175</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.433383934930452</v>
@@ -31605,7 +31341,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.637544569930505</v>
+        <v>1.578492011394505</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.32660339401826</v>
@@ -31694,7 +31430,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.630776672828184</v>
+        <v>1.569236156763641</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.387224368085658</v>
@@ -31783,7 +31519,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.625403661072977</v>
+        <v>1.565195277589214</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.454598002373434</v>
@@ -31872,7 +31608,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.639147775879817</v>
+        <v>1.57894470052046</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.405127508635697</v>
@@ -31961,7 +31697,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.643017635490583</v>
+        <v>1.577789302372416</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.419396837083537</v>
@@ -32050,7 +31786,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.649300364655717</v>
+        <v>1.581603575777196</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.368370389236925</v>
@@ -32139,7 +31875,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.655438008908756</v>
+        <v>1.594441925436059</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.428693499671718</v>
@@ -32228,7 +31964,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.655005686212379</v>
+        <v>1.602033991506252</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.43431374495228</v>
@@ -32317,7 +32053,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.656640677395687</v>
+        <v>1.615846423814618</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.303627677318639</v>
@@ -32406,7 +32142,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.639533743766179</v>
+        <v>1.604267883613436</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.439349406565005</v>
@@ -32495,7 +32231,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.637967956254409</v>
+        <v>1.604871697241467</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.438147227186458</v>
@@ -32584,7 +32320,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.634806058038712</v>
+        <v>1.600995296517226</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.472721060884764</v>
@@ -32673,7 +32409,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.636323835885759</v>
+        <v>1.594664806926291</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.343333937795791</v>
@@ -32762,7 +32498,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.689577074057597</v>
+        <v>1.632812153360215</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.882241903613665</v>
@@ -32851,7 +32587,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.695876686910507</v>
+        <v>1.630246399921685</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.732799742783621</v>
@@ -32940,7 +32676,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.682548122368401</v>
+        <v>1.619389360586236</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.145333914961342</v>
@@ -33029,7 +32765,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.691650286914695</v>
+        <v>1.632187371531783</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.801775591273512</v>
@@ -33118,7 +32854,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.689411548808241</v>
+        <v>1.630035586466461</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.007158941306725</v>
@@ -33207,7 +32943,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.680522895530773</v>
+        <v>1.621176431051973</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.148047621055997</v>
@@ -33296,7 +33032,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.656811029092893</v>
+        <v>1.605815676208179</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.930876475933333</v>
@@ -33385,7 +33121,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.649840961232991</v>
+        <v>1.595653406654991</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.950874273262163</v>
@@ -33474,7 +33210,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.638093149434989</v>
+        <v>1.575135252282944</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.804068950686141</v>
@@ -33563,7 +33299,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.643600287539495</v>
+        <v>1.575847370041353</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.761202388578464</v>
@@ -33652,7 +33388,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.639461218504328</v>
+        <v>1.569123746559825</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.987079905258412</v>
@@ -33741,7 +33477,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.65221767442061</v>
+        <v>1.577709187480718</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.339313102769777</v>
@@ -33830,7 +33566,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.646301065651429</v>
+        <v>1.57395255824871</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.360688212080945</v>
@@ -34116,7 +33852,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.771499195588323</v>
+        <v>1.73138042390544</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.442200001779849</v>
@@ -34205,7 +33941,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.784121300324071</v>
+        <v>1.736900054372432</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.234909618407686</v>
@@ -34294,7 +34030,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.778556593331918</v>
+        <v>1.730724583101788</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.057008271386563</v>
@@ -34383,7 +34119,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.777006309958725</v>
+        <v>1.723587408640984</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.528390174235797</v>
@@ -34472,7 +34208,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.779560673797425</v>
+        <v>1.727326818331962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.094321872058575</v>
@@ -34561,7 +34297,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.757845811744424</v>
+        <v>1.709186996683949</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.488999790171946</v>
@@ -34650,7 +34386,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.752790954785164</v>
+        <v>1.702232462659614</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.431009847637311</v>
@@ -34739,7 +34475,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.757749802438572</v>
+        <v>1.703526754604088</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.295757148365658</v>
@@ -34828,7 +34564,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.767981096906247</v>
+        <v>1.709388349577361</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.139365709236142</v>
@@ -34917,7 +34653,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.774109907903511</v>
+        <v>1.715906874416019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.232510893187769</v>
@@ -35006,7 +34742,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.765876953287419</v>
+        <v>1.712874363509232</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.193121950154381</v>
@@ -35095,7 +34831,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.770255072303186</v>
+        <v>1.718091213241223</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.212317458438346</v>
@@ -35184,7 +34920,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.770903171329732</v>
+        <v>1.713559500314814</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.39416398056377</v>
@@ -35273,7 +35009,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.788639359939384</v>
+        <v>1.72862644377368</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.466415465289928</v>
@@ -35362,7 +35098,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.787904069359262</v>
+        <v>1.723965681975246</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.762003396277208</v>
@@ -35451,7 +35187,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.767553231869977</v>
+        <v>1.700044152596427</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.639532563893372</v>
@@ -35540,7 +35276,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.767762002161183</v>
+        <v>1.697222643198959</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.559030689053254</v>
@@ -35629,7 +35365,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.76303519796049</v>
+        <v>1.695152279960533</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.57110387177682</v>
@@ -35718,7 +35454,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.756013799725832</v>
+        <v>1.690449342606527</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.304945234598962</v>
@@ -35807,7 +35543,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.754795616937288</v>
+        <v>1.691714743543039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.6538945917721</v>
@@ -35896,7 +35632,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.768016136149772</v>
+        <v>1.698326893149455</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.628071982524843</v>
@@ -35985,7 +35721,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.758340549589625</v>
+        <v>1.69213765959766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.585582143974523</v>
@@ -36074,7 +35810,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.762281056711976</v>
+        <v>1.698728482642186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.486694952380955</v>
@@ -36163,7 +35899,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.743693188101507</v>
+        <v>1.680210882569109</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.535929181459669</v>
@@ -36252,7 +35988,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.742734693778727</v>
+        <v>1.67688413408631</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.278665003892449</v>
@@ -36341,7 +36077,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746817119825896</v>
+        <v>1.676172915862589</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.42954907025791</v>
@@ -36430,7 +36166,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.73974217713962</v>
+        <v>1.668497964492693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.498535598383488</v>
@@ -36519,7 +36255,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.734489112479319</v>
+        <v>1.661736820131778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.606720935300197</v>
@@ -36608,7 +36344,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.737116936934773</v>
+        <v>1.668705248088579</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.669854696222795</v>
@@ -36697,7 +36433,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.737741271905733</v>
+        <v>1.668146860199195</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.725960214950322</v>
@@ -36786,7 +36522,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.747448185428265</v>
+        <v>1.678002224202808</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.353149803221444</v>
@@ -36875,7 +36611,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.742946795712188</v>
+        <v>1.683385816281093</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.633918098578963</v>
@@ -36964,7 +36700,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.748300837363992</v>
+        <v>1.691802900929031</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.550687384712193</v>
@@ -37053,7 +36789,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.748493565293006</v>
+        <v>1.687441551692274</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.577847286290378</v>
@@ -37142,7 +36878,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.738892427393165</v>
+        <v>1.673251536138806</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.498925024677389</v>
@@ -37231,7 +36967,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.747840681072855</v>
+        <v>1.678205700792476</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.766293393525709</v>
@@ -37320,7 +37056,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.758818142144132</v>
+        <v>1.683397244658186</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.68222332396564</v>
@@ -37409,7 +37145,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.750085444977296</v>
+        <v>1.671957921917596</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.342904798494522</v>
@@ -37498,7 +37234,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763377664529523</v>
+        <v>1.677671808803592</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.274104234391174</v>
@@ -37587,7 +37323,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.751802918384513</v>
+        <v>1.662107196533029</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.693710231350128</v>
@@ -37676,7 +37412,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.718476623671882</v>
+        <v>1.640423444783373</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.946029797912658</v>
@@ -37765,7 +37501,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.709075898908032</v>
+        <v>1.633625619440598</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.758624270906959</v>
@@ -37854,7 +37590,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.710915766758527</v>
+        <v>1.639574840071706</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.908430564325402</v>
@@ -37943,7 +37679,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.712288609016709</v>
+        <v>1.638796879676972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.959285507991219</v>
@@ -38032,7 +37768,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.710311917200304</v>
+        <v>1.64002205811997</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.974564534877088</v>
@@ -38121,7 +37857,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.715384519027434</v>
+        <v>1.646954994354007</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.913029977261838</v>
@@ -38210,7 +37946,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.714089020752105</v>
+        <v>1.642215346841421</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.730935846763528</v>
@@ -38299,7 +38035,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.70985796558608</v>
+        <v>1.629473940974381</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.883913491947216</v>
@@ -38388,7 +38124,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.704348864475062</v>
+        <v>1.628172544986851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.93524559088968</v>
@@ -38477,7 +38213,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.716794132092891</v>
+        <v>1.639451546103426</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.898707801046826</v>
@@ -38566,7 +38302,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.711888498780674</v>
+        <v>1.636806249549968</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.836985758040001</v>
@@ -38655,7 +38391,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.708395935933407</v>
+        <v>1.631687809344146</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.817154069979392</v>
@@ -38744,7 +38480,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.714939680362914</v>
+        <v>1.637775884803665</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.949771259773132</v>
@@ -38833,7 +38569,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.718412807047048</v>
+        <v>1.637523993395148</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.953567639025191</v>
@@ -38922,7 +38658,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.719766632178821</v>
+        <v>1.642047115763133</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.865676904011544</v>
@@ -39011,7 +38747,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.754760572841668</v>
+        <v>1.661263722683764</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.277332891661448</v>
@@ -39100,7 +38836,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.763246640826249</v>
+        <v>1.669248103145331</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.802503844969572</v>
@@ -39189,7 +38925,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.769098858320448</v>
+        <v>1.674212158303245</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.907147767429735</v>
@@ -39278,7 +39014,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.768457950198657</v>
+        <v>1.673766635467345</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.12102175889713</v>
@@ -39367,7 +39103,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.76694246286054</v>
+        <v>1.672854196155276</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.256238380936907</v>
@@ -39456,7 +39192,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.766567454236703</v>
+        <v>1.668878868206306</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.982098274572414</v>
@@ -39545,7 +39281,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.76506127677781</v>
+        <v>1.670258301435147</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.722822979615477</v>
@@ -39634,7 +39370,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.766845779426994</v>
+        <v>1.669323365366757</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.703135365721693</v>
@@ -39723,7 +39459,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.761820794168431</v>
+        <v>1.667382266976834</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.756332452155088</v>
@@ -39812,7 +39548,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.76291863043619</v>
+        <v>1.671097092423533</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.835350885569289</v>
@@ -39901,7 +39637,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.768948546519509</v>
+        <v>1.670271895616623</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.624821912303348</v>
@@ -39990,7 +39726,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.775383165449224</v>
+        <v>1.678029432330717</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.621305547629591</v>
@@ -40079,7 +39815,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.777097249745021</v>
+        <v>1.69017903275468</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.841395853981159</v>
@@ -40168,7 +39904,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.771222449322126</v>
+        <v>1.687608254365045</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.900471375336892</v>
@@ -40257,7 +39993,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.771076837379604</v>
+        <v>1.691269533468476</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.190455525753858</v>
@@ -40346,7 +40082,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.746547602492022</v>
+        <v>1.675605390947592</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.832781082095835</v>
@@ -40435,7 +40171,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.74739644981162</v>
+        <v>1.677051412078159</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.670939228114352</v>
@@ -40524,7 +40260,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.739954482142733</v>
+        <v>1.673639007092968</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.356993709634892</v>
@@ -40613,7 +40349,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.730090279491075</v>
+        <v>1.663242869293351</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.652442366335976</v>
@@ -40702,7 +40438,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.698671590043947</v>
+        <v>1.640111681230006</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.241568802563943</v>
@@ -40791,7 +40527,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.697495521421073</v>
+        <v>1.632975971360475</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.866488008027853</v>
@@ -40880,7 +40616,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.69317652217427</v>
+        <v>1.627042223807093</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.983237142024228</v>
@@ -40969,7 +40705,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.696035601855043</v>
+        <v>1.632574660497042</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.13297257268084</v>
@@ -41058,7 +40794,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.692271825298886</v>
+        <v>1.630254437455689</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.974572197754631</v>
@@ -41147,7 +40883,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.683424587729476</v>
+        <v>1.617880787628875</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.882737181444786</v>
@@ -41236,7 +40972,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.677674539193825</v>
+        <v>1.616622251330349</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.067297563220555</v>
@@ -41325,7 +41061,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.670253350140594</v>
+        <v>1.604050703056218</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.964504900496925</v>
@@ -41414,7 +41150,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.660784836399484</v>
+        <v>1.58957025716261</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.11224351092074</v>
@@ -41503,7 +41239,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.65782486738856</v>
+        <v>1.588594243825469</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.958560709835963</v>
@@ -41592,7 +41328,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.660133355979531</v>
+        <v>1.588261967833196</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.074754217627572</v>
@@ -41681,7 +41417,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.679917334797963</v>
+        <v>1.599395799922579</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.071538233162963</v>
@@ -41770,7 +41506,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.681168177065423</v>
+        <v>1.599634611437305</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.958229324696397</v>
@@ -42056,7 +41792,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.4956256995438</v>
+        <v>1.498153623254254</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.822726137106179</v>
@@ -42145,7 +41881,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.505610441819293</v>
+        <v>1.507839276395254</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.670853008743429</v>
@@ -42234,7 +41970,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507722767548513</v>
+        <v>1.511625456320374</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.754354325736101</v>
@@ -42323,7 +42059,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.510127788930614</v>
+        <v>1.511752244169599</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.843982180299944</v>
@@ -42412,7 +42148,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.498012126355622</v>
+        <v>1.502227269773784</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.783079547595201</v>
@@ -42501,7 +42237,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.483879598313904</v>
+        <v>1.486289000585314</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.728150827146149</v>
@@ -42590,7 +42326,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.449208213325636</v>
+        <v>1.453619949415941</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.519920060218772</v>
@@ -42679,7 +42415,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.439867106912558</v>
+        <v>1.450133468087108</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.680052021221644</v>
@@ -42768,7 +42504,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.439735013718679</v>
+        <v>1.453132081248085</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.570308259688503</v>
@@ -42857,7 +42593,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.448573522009652</v>
+        <v>1.463303126865347</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.71619055414391</v>
@@ -42946,7 +42682,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433778063612754</v>
+        <v>1.442483183148879</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.600527153256468</v>
@@ -43035,7 +42771,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436696593399881</v>
+        <v>1.444259081086729</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.527542589288168</v>
@@ -43124,7 +42860,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.442337604647313</v>
+        <v>1.449631009844276</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.709768397163497</v>
@@ -43213,7 +42949,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.446199605550192</v>
+        <v>1.451374701207858</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.634333216033849</v>
@@ -43302,7 +43038,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.452717720009921</v>
+        <v>1.452179861812359</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.695770359313516</v>
@@ -43391,7 +43127,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.431811309093895</v>
+        <v>1.424052392030936</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.549081109247505</v>
@@ -43480,7 +43216,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429483694652128</v>
+        <v>1.420840027707635</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.58546063185942</v>
@@ -43569,7 +43305,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.410009153986056</v>
+        <v>1.398714139642696</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.304022284788239</v>
@@ -43658,7 +43394,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.415250818870021</v>
+        <v>1.396636331624825</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.277801615600339</v>
@@ -43747,7 +43483,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.421273004402667</v>
+        <v>1.404742557567095</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.414350932166031</v>
@@ -43836,7 +43572,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.426011379672701</v>
+        <v>1.406725845161251</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.427955181509366</v>
@@ -43925,7 +43661,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.449539398523134</v>
+        <v>1.420252929788353</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.244662450278258</v>
@@ -44014,7 +43750,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451603188932994</v>
+        <v>1.423294542478607</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.221232347893587</v>
@@ -44103,7 +43839,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.450807257949022</v>
+        <v>1.424063366951517</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.369821862607855</v>
@@ -44192,7 +43928,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.455803317224611</v>
+        <v>1.430007263588197</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.308232285926085</v>
@@ -44281,7 +44017,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.466557098381404</v>
+        <v>1.440122202005528</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.397192535598164</v>
@@ -44370,7 +44106,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.470729446123487</v>
+        <v>1.447070198239846</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.373187655130766</v>
@@ -44459,7 +44195,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.478951845338953</v>
+        <v>1.455043134505975</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.294304244625936</v>
@@ -44548,7 +44284,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.469409533827258</v>
+        <v>1.445178814874614</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.462254933512787</v>
@@ -44637,7 +44373,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.463300751242723</v>
+        <v>1.444188544988021</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.317186665037652</v>
@@ -44726,7 +44462,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.468309960639261</v>
+        <v>1.452705250424594</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.204254167837108</v>
@@ -44815,7 +44551,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.469956316337979</v>
+        <v>1.458268631639903</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.29855380985183</v>
@@ -44904,7 +44640,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.490931556602654</v>
+        <v>1.477740142872754</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.480754416603679</v>
@@ -44993,7 +44729,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.489834277733195</v>
+        <v>1.48821626546274</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.521849199062553</v>
@@ -45082,7 +44818,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.488449292988047</v>
+        <v>1.480825159752409</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.466038042541037</v>
@@ -45171,7 +44907,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.504807714010497</v>
+        <v>1.492391552057827</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.54143693304216</v>
@@ -45260,7 +44996,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.512837433524639</v>
+        <v>1.502418124554578</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.498728500246006</v>
@@ -45349,7 +45085,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.513697771542199</v>
+        <v>1.497001307448108</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.53138334410282</v>
@@ -45438,7 +45174,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.516791666729283</v>
+        <v>1.497696892970539</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.520061071257811</v>
@@ -45527,7 +45263,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.505151057599176</v>
+        <v>1.484990593268036</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.405173921461929</v>
@@ -45616,7 +45352,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.499919402179295</v>
+        <v>1.476502657532116</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.250020377059762</v>
@@ -45705,7 +45441,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.490424826139189</v>
+        <v>1.466761546469739</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.41352978130729</v>
@@ -45794,7 +45530,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.471834131975045</v>
+        <v>1.446723556720297</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.512526916483826</v>
@@ -45883,7 +45619,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.479083908798289</v>
+        <v>1.454749220112959</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.326012433726</v>
@@ -45972,7 +45708,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.47472733455949</v>
+        <v>1.448638508104819</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.363838445046697</v>
@@ -46061,7 +45797,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.4889374157757</v>
+        <v>1.459285315508742</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.843587492330296</v>
@@ -46150,7 +45886,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.480110531816196</v>
+        <v>1.451159251585487</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.693103548528361</v>
@@ -46239,7 +45975,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.471583914511598</v>
+        <v>1.445938014990892</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.99210320850297</v>
@@ -46328,7 +46064,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.471964821541483</v>
+        <v>1.445988694204792</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.852315719551967</v>
@@ -46417,7 +46153,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.473017306636295</v>
+        <v>1.448711148606779</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.735845462387093</v>
@@ -46506,7 +46242,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.465119459124341</v>
+        <v>1.437481585733594</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.765917296905999</v>
@@ -46595,7 +46331,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.449369674269334</v>
+        <v>1.422540036318761</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.84362325018803</v>
@@ -46684,7 +46420,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.453825572941112</v>
+        <v>1.430258864828182</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.8842260120181</v>
@@ -46773,7 +46509,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.445283179800805</v>
+        <v>1.424389125834666</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.574789907573657</v>
@@ -46862,7 +46598,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.456042689418205</v>
+        <v>1.434665402351461</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.800153906978542</v>
@@ -46951,7 +46687,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.450001301807515</v>
+        <v>1.430856809192468</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.757834484836637</v>
@@ -47040,7 +46776,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.437002118464026</v>
+        <v>1.418637929880355</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.930957508179065</v>
@@ -47129,7 +46865,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.448170696479788</v>
+        <v>1.429254673882568</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.661798105253094</v>
@@ -47218,7 +46954,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.442837627581282</v>
+        <v>1.423260704912491</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.982492034511255</v>
@@ -47307,7 +47043,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.436451750072565</v>
+        <v>1.419895234532474</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.768102458329618</v>
@@ -47396,7 +47132,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.438794668899727</v>
+        <v>1.420547595396435</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.564807419272896</v>
@@ -47485,7 +47221,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.444429435769415</v>
+        <v>1.426383333116582</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.636062371017573</v>
@@ -47574,7 +47310,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.439090690229429</v>
+        <v>1.4155857770998</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.473133102701951</v>
@@ -47663,7 +47399,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.434351449980912</v>
+        <v>1.41095785147564</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.471360920185448</v>
@@ -47752,7 +47488,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.431425183106166</v>
+        <v>1.409108758542317</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.458567586704389</v>
@@ -47841,7 +47577,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.434763691655945</v>
+        <v>1.422187398296566</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.455812104513661</v>
@@ -47930,7 +47666,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.454017539598679</v>
+        <v>1.439765297979305</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.511391186801815</v>
@@ -48019,7 +47755,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.455781821923869</v>
+        <v>1.440483726030303</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.472788237138661</v>
@@ -48108,7 +47844,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.44797575722282</v>
+        <v>1.433592116055521</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.558056249017637</v>
@@ -48197,7 +47933,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.445533440924021</v>
+        <v>1.42971985128899</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.662221590956042</v>
@@ -48286,7 +48022,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.44831588372221</v>
+        <v>1.432745067697809</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.50680086198372</v>
@@ -48375,7 +48111,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.466479042695727</v>
+        <v>1.45410212008729</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.461699166904478</v>
@@ -48464,7 +48200,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.464305536631633</v>
+        <v>1.450966767102874</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.714063278400967</v>
@@ -48553,7 +48289,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.475911228190868</v>
+        <v>1.456737451553935</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.642073309210921</v>
@@ -48642,7 +48378,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.474891916871369</v>
+        <v>1.45627361784775</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.32162531654333</v>
@@ -48731,7 +48467,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.47592958166076</v>
+        <v>1.459579435962042</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.481712687273188</v>
@@ -48820,7 +48556,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.468994266279047</v>
+        <v>1.453167818817079</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.611607683007124</v>
@@ -48909,7 +48645,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.471850319809544</v>
+        <v>1.466717733907829</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.896681875158968</v>
@@ -48998,7 +48734,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.471284575428015</v>
+        <v>1.465522029453783</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.885504433805379</v>
@@ -49087,7 +48823,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.457257446108409</v>
+        <v>1.457697254333808</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.889517321804734</v>
@@ -49176,7 +48912,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.462104519628359</v>
+        <v>1.452006700599753</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.986690221412134</v>
@@ -49265,7 +49001,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.456393840033143</v>
+        <v>1.447851396791956</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.911776306177529</v>
@@ -49354,7 +49090,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.452760470214473</v>
+        <v>1.442878331267649</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.850516897244036</v>
@@ -49443,7 +49179,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.453848473900766</v>
+        <v>1.444569377378524</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.704400557589254</v>
@@ -49532,7 +49268,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.45659922093682</v>
+        <v>1.445483448994538</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.718873543542526</v>
@@ -49621,7 +49357,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.455677183458382</v>
+        <v>1.44460831644581</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.820012032090767</v>
@@ -49710,7 +49446,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.447556809905902</v>
+        <v>1.4326130040896</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.673266017197345</v>
@@ -49996,7 +49732,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.749013871835045</v>
+        <v>1.763283077738127</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.103411452880544</v>
@@ -50085,7 +49821,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.782371643738013</v>
+        <v>1.792927041895472</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.785225514827198</v>
@@ -50174,7 +49910,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.781080977113484</v>
+        <v>1.795378541687142</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.04726411210654</v>
@@ -50263,7 +49999,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.810438155015683</v>
+        <v>1.821990662887088</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.337972138112439</v>
@@ -50352,7 +50088,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.80866255115432</v>
+        <v>1.823272101461718</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.238172975994385</v>
@@ -50441,7 +50177,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.808989814061617</v>
+        <v>1.823620528259767</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.350145613797968</v>
@@ -50530,7 +50266,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.799833927641169</v>
+        <v>1.81244983028255</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.270226788996821</v>
@@ -50619,7 +50355,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.791304428687382</v>
+        <v>1.807174597907391</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.487358949343711</v>
@@ -50708,7 +50444,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.81013462184664</v>
+        <v>1.826495670938567</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.127254911979939</v>
@@ -50797,7 +50533,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.807193685033162</v>
+        <v>1.823306562403001</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.265255908415412</v>
@@ -50886,7 +50622,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.80200037413143</v>
+        <v>1.818341607473209</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.467953248936935</v>
@@ -50975,7 +50711,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.80726572759826</v>
+        <v>1.82341274914151</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.555291133379543</v>
@@ -51064,7 +50800,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.810591654845237</v>
+        <v>1.823549732352888</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.138645794622293</v>
@@ -51153,7 +50889,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.834409324002776</v>
+        <v>1.841799233635625</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.113269857243754</v>
@@ -51242,7 +50978,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.859463977917429</v>
+        <v>1.860993270448424</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.651886365430476</v>
@@ -51331,7 +51067,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.817910681924118</v>
+        <v>1.816296171918804</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.319042561773007</v>
@@ -51420,7 +51156,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.815481326589416</v>
+        <v>1.812555739528473</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.022711212427716</v>
@@ -51509,7 +51245,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.81254850860601</v>
+        <v>1.805560909035534</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.343204599598979</v>
@@ -51598,7 +51334,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.793363500375627</v>
+        <v>1.787212573265031</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.18034410900888</v>
@@ -51687,7 +51423,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.797389851775202</v>
+        <v>1.788724856133401</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.41962975018436</v>
@@ -51776,7 +51512,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.814713682934661</v>
+        <v>1.796842813672178</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.233027547503927</v>
@@ -51865,7 +51601,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.818136030557485</v>
+        <v>1.792153920765924</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.793232876841166</v>
@@ -51954,7 +51690,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.815059720380063</v>
+        <v>1.795936738168019</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.119194826761121</v>
@@ -52043,7 +51779,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.799686489669059</v>
+        <v>1.781757982222534</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.990700411556042</v>
@@ -52132,7 +51868,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.800109296429988</v>
+        <v>1.781916972290952</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.325960654203928</v>
@@ -52221,7 +51957,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.812292234669984</v>
+        <v>1.792480005237091</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.025322874768435</v>
@@ -52310,7 +52046,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.801255219990807</v>
+        <v>1.785312695114172</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.922791564318642</v>
@@ -52399,7 +52135,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.7962771588949</v>
+        <v>1.785036432003398</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.929642292830528</v>
@@ -52488,7 +52224,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.797736264866303</v>
+        <v>1.79071723137812</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.863921745694324</v>
@@ -52577,7 +52313,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.781033274983779</v>
+        <v>1.778503096374936</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.143500846164531</v>
@@ -52666,7 +52402,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.817515963287456</v>
+        <v>1.811656286352103</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.657592673704582</v>
@@ -52755,7 +52491,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.815369727002428</v>
+        <v>1.806885260615934</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.292390349601499</v>
@@ -52844,7 +52580,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.806508177467763</v>
+        <v>1.802322259615459</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.190769781578786</v>
@@ -52933,7 +52669,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.821131415407737</v>
+        <v>1.815664165298235</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.062265565571135</v>
@@ -53022,7 +52758,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.811320297967438</v>
+        <v>1.80846579888908</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.971322767541166</v>
@@ -53111,7 +52847,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.818434717245986</v>
+        <v>1.817213803979209</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.946580414347484</v>
@@ -53200,7 +52936,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.8423707457177</v>
+        <v>1.8372477316481</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.488869936828651</v>
@@ -53289,7 +53025,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.844422330873245</v>
+        <v>1.832516863383562</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.55995716256224</v>
@@ -53378,7 +53114,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.859692820312945</v>
+        <v>1.838199880770135</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.322672174132388</v>
@@ -53467,7 +53203,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.858335624030883</v>
+        <v>1.839594682061812</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.566870899293634</v>
@@ -53556,7 +53292,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.862915997543994</v>
+        <v>1.836355235330472</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.430990111014378</v>
@@ -53645,7 +53381,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.859614322657006</v>
+        <v>1.829476830778279</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.429104831355038</v>
@@ -53734,7 +53470,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.855459894119102</v>
+        <v>1.82394326010671</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.497009651216727</v>
@@ -53823,7 +53559,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.840156867804995</v>
+        <v>1.811782758741162</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.152542237054453</v>
@@ -53912,7 +53648,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.855155083951579</v>
+        <v>1.828154580776151</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.27779589949972</v>
@@ -54001,7 +53737,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.850167348236898</v>
+        <v>1.82418158935733</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.475947874792344</v>
@@ -54090,7 +53826,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.836592749309379</v>
+        <v>1.810444755397848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.18853620278741</v>
@@ -54179,7 +53915,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.843389496215963</v>
+        <v>1.819856295099701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.482065356812426</v>
@@ -54268,7 +54004,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.841097722209659</v>
+        <v>1.820021892915667</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.434962697183594</v>
@@ -54357,7 +54093,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.853803346719044</v>
+        <v>1.827342947886605</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.395390650967165</v>
@@ -54446,7 +54182,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.854669448901724</v>
+        <v>1.824979849421027</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.221419008052107</v>
@@ -54535,7 +54271,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.837563767583707</v>
+        <v>1.809984417586502</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.090193888804238</v>
@@ -54624,7 +54360,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.81948152511334</v>
+        <v>1.79693486538354</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.553296913444708</v>
@@ -54713,7 +54449,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.823225776079165</v>
+        <v>1.801179389132779</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.407835462228527</v>
@@ -54802,7 +54538,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.819257781922523</v>
+        <v>1.795663651918192</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.273597306663081</v>
@@ -54891,7 +54627,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.805903650978997</v>
+        <v>1.791478484578034</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.135291053296588</v>
@@ -54980,7 +54716,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.827383107645426</v>
+        <v>1.812189855466982</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.003808251072745</v>
@@ -55069,7 +54805,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.83052351100194</v>
+        <v>1.82005637108942</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.447735456296952</v>
@@ -55158,7 +54894,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.85420486054079</v>
+        <v>1.846841729554359</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.635572305568451</v>
@@ -55247,7 +54983,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.838008826882599</v>
+        <v>1.829919334868985</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.269591595269375</v>
@@ -55336,7 +55072,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.838896677919323</v>
+        <v>1.828291637585783</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.524582644240557</v>
@@ -55425,7 +55161,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.83961565952189</v>
+        <v>1.82780596034282</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.687544451342551</v>
@@ -55514,7 +55250,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.824344752557278</v>
+        <v>1.806056803500235</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.581719289261071</v>
@@ -55603,7 +55339,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.824096206868799</v>
+        <v>1.806836967811188</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.127789886318712</v>
@@ -55692,7 +55428,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.815718783438913</v>
+        <v>1.804921274947843</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.072242673870055</v>
@@ -55781,7 +55517,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.826431855830076</v>
+        <v>1.815471369624369</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.786890130686056</v>
@@ -55870,7 +55606,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.841878164558637</v>
+        <v>1.824459753986642</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.213682212735342</v>
@@ -55959,7 +55695,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.839040245071981</v>
+        <v>1.831413679090579</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.45350166014141</v>
@@ -56048,7 +55784,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.825739159345808</v>
+        <v>1.81917181688347</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.125480660789342</v>
@@ -56137,7 +55873,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.808653035417082</v>
+        <v>1.802141487894152</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.282936462442482</v>
@@ -56226,7 +55962,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.787425038594138</v>
+        <v>1.781163327719373</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.103236970439327</v>
@@ -56315,7 +56051,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.784180483057323</v>
+        <v>1.777500821574473</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.432467520278025</v>
@@ -56404,7 +56140,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.781925709344753</v>
+        <v>1.77499646242868</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.252771138973419</v>
@@ -56493,7 +56229,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.772948562949242</v>
+        <v>1.758366506849771</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.492125057286545</v>
@@ -56582,7 +56318,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.776320662655771</v>
+        <v>1.756923307874979</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.239195512352315</v>
@@ -56671,7 +56407,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.773352146289537</v>
+        <v>1.751842322811364</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.357866661029731</v>
@@ -56760,7 +56496,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.759641503664435</v>
+        <v>1.743299269239695</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.400091859471157</v>
@@ -56849,7 +56585,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.769831711682999</v>
+        <v>1.759024146671902</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.331866227893386</v>
@@ -56938,7 +56674,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.767223255573427</v>
+        <v>1.75692193534264</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.667316189656843</v>
@@ -57027,7 +56763,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.7701922486192</v>
+        <v>1.758544419613248</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.320970057490389</v>
@@ -57116,7 +56852,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.763752895536247</v>
+        <v>1.74833092972123</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.312061186193618</v>
@@ -57205,7 +56941,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.750719346861499</v>
+        <v>1.734229572229729</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.593139677886225</v>
@@ -57294,7 +57030,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.741095163584861</v>
+        <v>1.720399911921397</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.354631149158076</v>
@@ -57383,7 +57119,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.743408004127643</v>
+        <v>1.722578805425198</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.259599467612174</v>
@@ -57472,7 +57208,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.749453622447084</v>
+        <v>1.728505184933263</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.554907047803183</v>
@@ -57561,7 +57297,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.775804363633352</v>
+        <v>1.75460124679657</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.737906458141057</v>
@@ -57650,7 +57386,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.762321920545422</v>
+        <v>1.742748031401296</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.526585731581712</v>
